--- a/benchmark_gaqpso.xlsx
+++ b/benchmark_gaqpso.xlsx
@@ -426,7 +426,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>6385.152681124745</v>
+        <v>1924.1587313387072</v>
       </c>
       <c r="B2">
         <v>53454</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>6063.217082374089</v>
+        <v>2776.7313550326917</v>
       </c>
       <c r="B3">
         <v>53454</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3360.621458156837</v>
+        <v>4271.192153310403</v>
       </c>
       <c r="B4">
         <v>53454</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2086.0365594602063</v>
+        <v>2328.3931944756023</v>
       </c>
       <c r="B5">
         <v>53454</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>3483.9853828993423</v>
+        <v>2830.503309152082</v>
       </c>
       <c r="B6">
         <v>53454</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3468.224126795816</v>
+        <v>2282.0906694254822</v>
       </c>
       <c r="B7">
         <v>53454</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3267.6824625978225</v>
+        <v>4357.671624561549</v>
       </c>
       <c r="B8">
         <v>53454</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3281.3719526732893</v>
+        <v>2943.9924610291246</v>
       </c>
       <c r="B9">
         <v>53454</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>4519.532931297059</v>
+        <v>2552.667471214792</v>
       </c>
       <c r="B10">
         <v>53454</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2935.7770698264276</v>
+        <v>4881.533946398773</v>
       </c>
       <c r="B11">
         <v>53454</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4758.938730461952</v>
+        <v>2029.7733865246173</v>
       </c>
       <c r="B12">
         <v>53454</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>5806.335200941227</v>
+        <v>4296.1423061985115</v>
       </c>
       <c r="B13">
         <v>53454</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>6041.919439675054</v>
+        <v>2594.0410344234583</v>
       </c>
       <c r="B14">
         <v>53454</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>3070.866525438477</v>
+        <v>3805.4377272470692</v>
       </c>
       <c r="B15">
         <v>53454</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>5902.029499600596</v>
+        <v>3057.4976453079375</v>
       </c>
       <c r="B16">
         <v>53454</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1692.8466882710318</v>
+        <v>2091.340777779976</v>
       </c>
       <c r="B17">
         <v>53454</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5881.714575007549</v>
+        <v>4402.894240665871</v>
       </c>
       <c r="B18">
         <v>53454</v>
@@ -613,7 +613,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>3282.0035311620095</v>
+        <v>2144.6784370952246</v>
       </c>
       <c r="B19">
         <v>53454</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>3866.3314053033682</v>
+        <v>5310.3441532915</v>
       </c>
       <c r="B20">
         <v>53454</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>3347.9523567932624</v>
+        <v>4877.795889449908</v>
       </c>
       <c r="B21">
         <v>53454</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2368.266722417027</v>
+        <v>3257.028114855123</v>
       </c>
       <c r="B22">
         <v>53454</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2733.0524079167158</v>
+        <v>2540.253980054867</v>
       </c>
       <c r="B23">
         <v>53454</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>7515.136463503375</v>
+        <v>4442.180133287541</v>
       </c>
       <c r="B24">
         <v>53454</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1357.268383776841</v>
+        <v>5699.944363684945</v>
       </c>
       <c r="B25">
         <v>53454</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1511.476922238858</v>
+        <v>1889.7981709670503</v>
       </c>
       <c r="B26">
         <v>53454</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2509.5069316942645</v>
+        <v>4613.804606141701</v>
       </c>
       <c r="B27">
         <v>53454</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>5116.865584271125</v>
+        <v>2062.2709517729945</v>
       </c>
       <c r="B28">
         <v>53454</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>6463.4012708837</v>
+        <v>4317.530209366261</v>
       </c>
       <c r="B29">
         <v>53454</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>6115.503852890082</v>
+        <v>3108.3657299628867</v>
       </c>
       <c r="B30">
         <v>53454</v>
@@ -745,7 +745,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4405.7228377513675</v>
+        <v>3496.411601017191</v>
       </c>
       <c r="B31">
         <v>53454</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2239.6088888565855</v>
+        <v>6663.663303764886</v>
       </c>
       <c r="B32">
         <v>53454</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>3702.617551207628</v>
+        <v>2989.868851241936</v>
       </c>
       <c r="B33">
         <v>53454</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>756.1032923271198</v>
+        <v>4907.19794322608</v>
       </c>
       <c r="B34">
         <v>53454</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2289.756671523606</v>
+        <v>4848.153454150208</v>
       </c>
       <c r="B35">
         <v>53454</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2540.0693039418284</v>
+        <v>5108.718148663769</v>
       </c>
       <c r="B36">
         <v>53454</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2649.0132322153295</v>
+        <v>4299.273455288621</v>
       </c>
       <c r="B37">
         <v>53454</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1663.591262881484</v>
+        <v>2744.7169934567764</v>
       </c>
       <c r="B38">
         <v>53454</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>5090.847481807774</v>
+        <v>3351.3712584343634</v>
       </c>
       <c r="B39">
         <v>53454</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4830.967484423362</v>
+        <v>5602.810671549645</v>
       </c>
       <c r="B40">
         <v>53454</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1921.2894045658772</v>
+        <v>1703.6372920184162</v>
       </c>
       <c r="B41">
         <v>53454</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1240.2443517209695</v>
+        <v>3316.689135506449</v>
       </c>
       <c r="B42">
         <v>53454</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>6265.468826092962</v>
+        <v>1709.0798782914317</v>
       </c>
       <c r="B43">
         <v>53454</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>2441.974273261157</v>
+        <v>4098.734435716239</v>
       </c>
       <c r="B44">
         <v>53454</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>4199.2758320231</v>
+        <v>3456.5526065393383</v>
       </c>
       <c r="B45">
         <v>53454</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>3026.961730162058</v>
+        <v>4931.804042060605</v>
       </c>
       <c r="B46">
         <v>53454</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>6752.089032430136</v>
+        <v>2438.568945875076</v>
       </c>
       <c r="B47">
         <v>53454</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>2757.3412945746013</v>
+        <v>3908.9598032330596</v>
       </c>
       <c r="B48">
         <v>53454</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2594.420321061645</v>
+        <v>4450.422790317278</v>
       </c>
       <c r="B49">
         <v>53454</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1571.4480846908016</v>
+        <v>3641.451775562555</v>
       </c>
       <c r="B50">
         <v>53454</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>3265.5821340166813</v>
+        <v>1074.1240694043245</v>
       </c>
       <c r="B51">
         <v>53454</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2436.106784343791</v>
+        <v>4533.526701423687</v>
       </c>
       <c r="B52">
         <v>53454</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>4484.1276219873025</v>
+        <v>1975.1486795885023</v>
       </c>
       <c r="B53">
         <v>53454</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>2726.868910006465</v>
+        <v>2788.7000211589657</v>
       </c>
       <c r="B54">
         <v>53454</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>5335.939627862393</v>
+        <v>2948.694778518134</v>
       </c>
       <c r="B55">
         <v>53454</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>3854.6732141042357</v>
+        <v>3054.992748538004</v>
       </c>
       <c r="B56">
         <v>53454</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2736.1831842102374</v>
+        <v>2440.145683805073</v>
       </c>
       <c r="B57">
         <v>53454</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1779.404507649827</v>
+        <v>2157.9506270038746</v>
       </c>
       <c r="B58">
         <v>53454</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>2975.209481307804</v>
+        <v>5100.771070366091</v>
       </c>
       <c r="B59">
         <v>53454</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>3187.9294241918833</v>
+        <v>4604.4093126483795</v>
       </c>
       <c r="B60">
         <v>53454</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>4986.445920229214</v>
+        <v>2050.1884721478377</v>
       </c>
       <c r="B61">
         <v>53454</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>4985.527124829336</v>
+        <v>2489.626533349404</v>
       </c>
       <c r="B62">
         <v>53454</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>1770.7535901037409</v>
+        <v>2643.9343531888653</v>
       </c>
       <c r="B63">
         <v>53454</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>5477.772765458379</v>
+        <v>3434.8934298030854</v>
       </c>
       <c r="B64">
         <v>53454</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>4283.0923885605525</v>
+        <v>2839.925121695883</v>
       </c>
       <c r="B65">
         <v>53454</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>8155.045473576812</v>
+        <v>2442.0330226337246</v>
       </c>
       <c r="B66">
         <v>53454</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>6034.008362596469</v>
+        <v>3745.76248736441</v>
       </c>
       <c r="B67">
         <v>53454</v>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>3295.314613091368</v>
+        <v>8641.921757050093</v>
       </c>
       <c r="B68">
         <v>53454</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>4635.066568170209</v>
+        <v>7931.335533240973</v>
       </c>
       <c r="B69">
         <v>53454</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2578.351251580017</v>
+        <v>5407.701530786392</v>
       </c>
       <c r="B70">
         <v>53454</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>2079.1756439528212</v>
+        <v>5556.182443856379</v>
       </c>
       <c r="B71">
         <v>53454</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>2705.2106926818324</v>
+        <v>2870.3961229105694</v>
       </c>
       <c r="B72">
         <v>53454</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>2841.6283164703855</v>
+        <v>4231.605405183543</v>
       </c>
       <c r="B73">
         <v>53454</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>2746.8543710766903</v>
+        <v>2221.5206928278953</v>
       </c>
       <c r="B74">
         <v>53454</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>4471.431023958203</v>
+        <v>4223.011856756055</v>
       </c>
       <c r="B75">
         <v>53454</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>4800.854577767441</v>
+        <v>4997.896517320863</v>
       </c>
       <c r="B76">
         <v>53454</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>2413.388526541763</v>
+        <v>5601.983171233185</v>
       </c>
       <c r="B77">
         <v>53454</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>4529.2015225967025</v>
+        <v>4024.1484083653045</v>
       </c>
       <c r="B78">
         <v>53454</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>1651.551789234274</v>
+        <v>4127.40449715744</v>
       </c>
       <c r="B79">
         <v>53454</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>5456.520411244766</v>
+        <v>3015.091952704278</v>
       </c>
       <c r="B80">
         <v>53454</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>4166.1057664516375</v>
+        <v>5771.359800361093</v>
       </c>
       <c r="B81">
         <v>53454</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>5477.041414477019</v>
+        <v>5179.631993426099</v>
       </c>
       <c r="B82">
         <v>53454</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>4148.019824630485</v>
+        <v>3609.8761622485736</v>
       </c>
       <c r="B83">
         <v>53454</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>4855.74683861761</v>
+        <v>5666.090862890185</v>
       </c>
       <c r="B84">
         <v>53454</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>2286.7525983507467</v>
+        <v>2282.757004893253</v>
       </c>
       <c r="B85">
         <v>53454</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>3264.749161014315</v>
+        <v>2341.660517164234</v>
       </c>
       <c r="B86">
         <v>53454</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>2836.2428911716847</v>
+        <v>5373.308239601682</v>
       </c>
       <c r="B87">
         <v>53454</v>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>4351.198430680482</v>
+        <v>1172.4245898372787</v>
       </c>
       <c r="B88">
         <v>53454</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>3000.1988060698395</v>
+        <v>5046.885073686973</v>
       </c>
       <c r="B89">
         <v>53454</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2353.01647479079</v>
+        <v>2980.3462022958456</v>
       </c>
       <c r="B90">
         <v>53454</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>6536.929841534713</v>
+        <v>4128.665064819475</v>
       </c>
       <c r="B91">
         <v>53454</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>5815.280088773298</v>
+        <v>2841.1696127098385</v>
       </c>
       <c r="B92">
         <v>53454</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>6922.601227232347</v>
+        <v>5717.172959117639</v>
       </c>
       <c r="B93">
         <v>53454</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>1639.2567130349548</v>
+        <v>4657.2710732592695</v>
       </c>
       <c r="B94">
         <v>53454</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>5940.16108552709</v>
+        <v>4983.284838958604</v>
       </c>
       <c r="B95">
         <v>53454</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>4857.721716202261</v>
+        <v>4262.763353161673</v>
       </c>
       <c r="B96">
         <v>53454</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>5081.772495762701</v>
+        <v>5606.147099852339</v>
       </c>
       <c r="B97">
         <v>53454</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>3113.4870018494594</v>
+        <v>2377.159354573716</v>
       </c>
       <c r="B98">
         <v>53454</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>3235.499055508439</v>
+        <v>2909.4522824516016</v>
       </c>
       <c r="B99">
         <v>53454</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>5826.71620138332</v>
+        <v>5019.034127376954</v>
       </c>
       <c r="B100">
         <v>53454</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>4843.053509126743</v>
+        <v>2550.4311331036815</v>
       </c>
       <c r="B101">
         <v>53454</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>680661.5784943278</v>
+        <v>1.5530798511683051e6</v>
       </c>
       <c r="B2">
         <v>196415</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>408021.9969233977</v>
+        <v>964842.5232170199</v>
       </c>
       <c r="B3">
         <v>196415</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>245883.243678512</v>
+        <v>459890.4342422152</v>
       </c>
       <c r="B4">
         <v>196415</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>368616.29806072096</v>
+        <v>585534.7740095916</v>
       </c>
       <c r="B5">
         <v>196415</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>896924.9934685874</v>
+        <v>208310.25265718158</v>
       </c>
       <c r="B6">
         <v>196415</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.0010924224952051e6</v>
+        <v>764296.4168087092</v>
       </c>
       <c r="B7">
         <v>196415</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>124693.84315656287</v>
+        <v>171968.57885156083</v>
       </c>
       <c r="B8">
         <v>196415</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>601446.1769062398</v>
+        <v>115779.18005109066</v>
       </c>
       <c r="B9">
         <v>196415</v>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>143402.9932149576</v>
+        <v>257005.98605619755</v>
       </c>
       <c r="B10">
         <v>196415</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>57261.40165250584</v>
+        <v>94057.98662645448</v>
       </c>
       <c r="B11">
         <v>196415</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>145569.93739493453</v>
+        <v>272883.8805979864</v>
       </c>
       <c r="B12">
         <v>196415</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>169031.23891659972</v>
+        <v>347661.9487452992</v>
       </c>
       <c r="B13">
         <v>196415</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>920725.9028022998</v>
+        <v>211800.63841028977</v>
       </c>
       <c r="B14">
         <v>196415</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>404263.3454046349</v>
+        <v>218566.9963154824</v>
       </c>
       <c r="B15">
         <v>196415</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>396186.7705204613</v>
+        <v>193803.99527057924</v>
       </c>
       <c r="B16">
         <v>196415</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>904469.5531631765</v>
+        <v>1.0597793073832984e6</v>
       </c>
       <c r="B17">
         <v>196415</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>75103.34641509021</v>
+        <v>162026.8909477377</v>
       </c>
       <c r="B18">
         <v>196415</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>73875.89510367031</v>
+        <v>154283.88993370946</v>
       </c>
       <c r="B19">
         <v>196415</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>468948.732052126</v>
+        <v>1.3473332231431135e6</v>
       </c>
       <c r="B20">
         <v>196415</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.3601832721899017e6</v>
+        <v>52620.62127466526</v>
       </c>
       <c r="B21">
         <v>196415</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.1236109473669908e6</v>
+        <v>56396.830564755684</v>
       </c>
       <c r="B22">
         <v>196415</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>260955.12160820822</v>
+        <v>1.1173049219007215e6</v>
       </c>
       <c r="B23">
         <v>196415</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>368821.0443731719</v>
+        <v>355559.39274721366</v>
       </c>
       <c r="B24">
         <v>196415</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>213194.45071277494</v>
+        <v>281492.30901014357</v>
       </c>
       <c r="B25">
         <v>196415</v>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1.0779125331985778e6</v>
+        <v>123798.92794741853</v>
       </c>
       <c r="B26">
         <v>196415</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>365313.36778059276</v>
+        <v>212300.9229356677</v>
       </c>
       <c r="B27">
         <v>196415</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>102943.0443577383</v>
+        <v>922800.2193276731</v>
       </c>
       <c r="B28">
         <v>196415</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>175344.42747247568</v>
+        <v>304093.67869030643</v>
       </c>
       <c r="B29">
         <v>196415</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>207756.48141948055</v>
+        <v>219058.3662913317</v>
       </c>
       <c r="B30">
         <v>196415</v>
@@ -1869,7 +1869,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.320816950385448e6</v>
+        <v>770281.1732313704</v>
       </c>
       <c r="B31">
         <v>196415</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>136798.03209418096</v>
+        <v>465414.600981635</v>
       </c>
       <c r="B32">
         <v>196415</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>28206.83679921358</v>
+        <v>633543.4694047176</v>
       </c>
       <c r="B33">
         <v>196415</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>836521.81812712</v>
+        <v>1.5004017910180953e6</v>
       </c>
       <c r="B34">
         <v>196415</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>133222.27342550489</v>
+        <v>768712.8964482647</v>
       </c>
       <c r="B35">
         <v>196415</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>449614.4989479046</v>
+        <v>95407.63635937223</v>
       </c>
       <c r="B36">
         <v>196415</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>96233.49629411189</v>
+        <v>1.0087473518805683e6</v>
       </c>
       <c r="B37">
         <v>196415</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>216267.30910516577</v>
+        <v>455040.1806066313</v>
       </c>
       <c r="B38">
         <v>196415</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>563001.3306973393</v>
+        <v>199522.5098228015</v>
       </c>
       <c r="B39">
         <v>196415</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>258519.26102969973</v>
+        <v>33724.72906329824</v>
       </c>
       <c r="B40">
         <v>196415</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>372281.7807272111</v>
+        <v>16567.893032505082</v>
       </c>
       <c r="B41">
         <v>196415</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>183388.9562197748</v>
+        <v>804829.0305850868</v>
       </c>
       <c r="B42">
         <v>196415</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>404427.62318068213</v>
+        <v>257959.9682824089</v>
       </c>
       <c r="B43">
         <v>196415</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>104976.09089382319</v>
+        <v>508779.96238242876</v>
       </c>
       <c r="B44">
         <v>196415</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>329960.99790313764</v>
+        <v>269165.45434258226</v>
       </c>
       <c r="B45">
         <v>196415</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1.1132975152225771e6</v>
+        <v>544953.503136031</v>
       </c>
       <c r="B46">
         <v>196415</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>132137.77884062333</v>
+        <v>82720.47573157559</v>
       </c>
       <c r="B47">
         <v>196415</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>897475.1399601769</v>
+        <v>1.1818222514294789e6</v>
       </c>
       <c r="B48">
         <v>196415</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>91405.53012588074</v>
+        <v>212422.08620213973</v>
       </c>
       <c r="B49">
         <v>196415</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>402763.19990560977</v>
+        <v>399637.0494553467</v>
       </c>
       <c r="B50">
         <v>196415</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>147706.24642223504</v>
+        <v>1.3073723144661319e6</v>
       </c>
       <c r="B51">
         <v>196415</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1.274461926584913e6</v>
+        <v>1.597914372480927e6</v>
       </c>
       <c r="B52">
         <v>196415</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>203073.3483302069</v>
+        <v>1.0477787118928104e6</v>
       </c>
       <c r="B53">
         <v>196415</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>966050.5542829472</v>
+        <v>604565.8831147478</v>
       </c>
       <c r="B54">
         <v>196415</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>26730.60329301399</v>
+        <v>475847.0240634437</v>
       </c>
       <c r="B55">
         <v>196415</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>88935.70050806103</v>
+        <v>132210.27227543123</v>
       </c>
       <c r="B56">
         <v>196415</v>
@@ -2155,7 +2155,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>141031.23028017642</v>
+        <v>117301.49262746298</v>
       </c>
       <c r="B57">
         <v>196415</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1.6731078980507157e6</v>
+        <v>73705.0095322505</v>
       </c>
       <c r="B58">
         <v>196415</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>676894.2953950629</v>
+        <v>1.065480887651449e6</v>
       </c>
       <c r="B59">
         <v>196415</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>614664.0911849763</v>
+        <v>826759.6743938139</v>
       </c>
       <c r="B60">
         <v>196415</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2.3121754951680526e6</v>
+        <v>458808.8397834893</v>
       </c>
       <c r="B61">
         <v>196415</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>588667.7253344121</v>
+        <v>1.3015711227086654e6</v>
       </c>
       <c r="B62">
         <v>196415</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>489996.6554708517</v>
+        <v>166475.80575971561</v>
       </c>
       <c r="B63">
         <v>196415</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>936413.4290325284</v>
+        <v>1.1090104913604562e6</v>
       </c>
       <c r="B64">
         <v>196415</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>187474.018026204</v>
+        <v>159312.60981088993</v>
       </c>
       <c r="B65">
         <v>196415</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>362547.2032419833</v>
+        <v>130234.06304235113</v>
       </c>
       <c r="B66">
         <v>196415</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>244426.39268272824</v>
+        <v>719139.7707948452</v>
       </c>
       <c r="B67">
         <v>196415</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>233210.39612214768</v>
+        <v>931504.4767251065</v>
       </c>
       <c r="B68">
         <v>196415</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>480602.9127145551</v>
+        <v>699248.7018620403</v>
       </c>
       <c r="B69">
         <v>196415</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>482487.5802756042</v>
+        <v>770139.8245389413</v>
       </c>
       <c r="B70">
         <v>196415</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>391588.204805289</v>
+        <v>336519.0982793953</v>
       </c>
       <c r="B71">
         <v>196415</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>588893.8126838157</v>
+        <v>221605.26287907665</v>
       </c>
       <c r="B72">
         <v>196415</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>541043.8441733686</v>
+        <v>125854.99075719775</v>
       </c>
       <c r="B73">
         <v>196415</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>247995.2477268296</v>
+        <v>158258.24014563754</v>
       </c>
       <c r="B74">
         <v>196415</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>2.1551444440565505e6</v>
+        <v>60260.67081368094</v>
       </c>
       <c r="B75">
         <v>196415</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>183999.66287135836</v>
+        <v>453676.8873621256</v>
       </c>
       <c r="B76">
         <v>196415</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>214177.34432901506</v>
+        <v>914881.2046775745</v>
       </c>
       <c r="B77">
         <v>196415</v>
@@ -2386,7 +2386,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>1.0476586371608899e6</v>
+        <v>1.5229799805601868e6</v>
       </c>
       <c r="B78">
         <v>196415</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>432244.51163117366</v>
+        <v>92945.55441388022</v>
       </c>
       <c r="B79">
         <v>196415</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>443486.4207244914</v>
+        <v>374155.9068279635</v>
       </c>
       <c r="B80">
         <v>196415</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>1.580598726107837e6</v>
+        <v>25765.430237789857</v>
       </c>
       <c r="B81">
         <v>196415</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>435022.32629356475</v>
+        <v>522141.8566282746</v>
       </c>
       <c r="B82">
         <v>196415</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>424115.8409322252</v>
+        <v>2.8622712107549813e6</v>
       </c>
       <c r="B83">
         <v>196415</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>212903.97674777708</v>
+        <v>618723.597001172</v>
       </c>
       <c r="B84">
         <v>196415</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>213445.94632010255</v>
+        <v>528411.5434036969</v>
       </c>
       <c r="B85">
         <v>196415</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>27968.774093637345</v>
+        <v>1.1026535656253372e6</v>
       </c>
       <c r="B86">
         <v>196415</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>2.3894273790128333e6</v>
+        <v>360024.73835444864</v>
       </c>
       <c r="B87">
         <v>196415</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>440796.5424075961</v>
+        <v>185506.47748144955</v>
       </c>
       <c r="B88">
         <v>196415</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>75990.4640017125</v>
+        <v>1.7504599690387128e6</v>
       </c>
       <c r="B89">
         <v>196415</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>1.4360557402224059e6</v>
+        <v>1.5209218010456746e6</v>
       </c>
       <c r="B90">
         <v>196415</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>1.1526039486798695e6</v>
+        <v>1.0829425387109309e6</v>
       </c>
       <c r="B91">
         <v>196415</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>1.2688806789173882e6</v>
+        <v>316078.81751379324</v>
       </c>
       <c r="B92">
         <v>196415</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>595435.3979607507</v>
+        <v>93609.35934332128</v>
       </c>
       <c r="B93">
         <v>196415</v>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>136532.24041644632</v>
+        <v>29267.151985851706</v>
       </c>
       <c r="B94">
         <v>196415</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>376145.34752556187</v>
+        <v>140564.02071066582</v>
       </c>
       <c r="B95">
         <v>196415</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>105064.17792183474</v>
+        <v>1.0831746468081349e6</v>
       </c>
       <c r="B96">
         <v>196415</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>375385.74993277673</v>
+        <v>617510.3444224618</v>
       </c>
       <c r="B97">
         <v>196415</v>
@@ -2606,7 +2606,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>131735.6459680438</v>
+        <v>326232.5458622432</v>
       </c>
       <c r="B98">
         <v>196415</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>317942.36281095643</v>
+        <v>713822.6293129674</v>
       </c>
       <c r="B99">
         <v>196415</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>380993.1856166838</v>
+        <v>65437.3455415487</v>
       </c>
       <c r="B100">
         <v>196415</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>766492.8137500094</v>
+        <v>532658.0232708472</v>
       </c>
       <c r="B101">
         <v>196415</v>
@@ -12790,7 +12790,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5550.782664935675</v>
+        <v>6730.847345033202</v>
       </c>
       <c r="B2">
         <v>53407</v>
@@ -12801,7 +12801,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>7109.500095051761</v>
+        <v>8229.418651423719</v>
       </c>
       <c r="B3">
         <v>53407</v>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>9422.65736152808</v>
+        <v>4855.362139183246</v>
       </c>
       <c r="B4">
         <v>53407</v>
@@ -12823,7 +12823,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>5449.94901965338</v>
+        <v>10330.173330434096</v>
       </c>
       <c r="B5">
         <v>53407</v>
@@ -12834,7 +12834,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4355.661470034891</v>
+        <v>7178.572088305221</v>
       </c>
       <c r="B6">
         <v>53407</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>9273.593968177009</v>
+        <v>4929.726454710424</v>
       </c>
       <c r="B7">
         <v>53407</v>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>5861.758384243913</v>
+        <v>6770.677887829455</v>
       </c>
       <c r="B8">
         <v>53407</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>7173.277222929582</v>
+        <v>7375.335193867546</v>
       </c>
       <c r="B9">
         <v>53407</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>4903.065507503452</v>
+        <v>4294.34229361615</v>
       </c>
       <c r="B10">
         <v>53407</v>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>5784.214621854607</v>
+        <v>7684.349216238707</v>
       </c>
       <c r="B11">
         <v>53407</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>5048.449788499189</v>
+        <v>7808.345589367209</v>
       </c>
       <c r="B12">
         <v>53407</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4756.454626488919</v>
+        <v>12189.610743923029</v>
       </c>
       <c r="B13">
         <v>53407</v>
@@ -12922,7 +12922,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>8058.14065740401</v>
+        <v>6134.187418309024</v>
       </c>
       <c r="B14">
         <v>53407</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>7886.580322119588</v>
+        <v>6992.565026822001</v>
       </c>
       <c r="B15">
         <v>53407</v>
@@ -12944,7 +12944,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>8179.745299159772</v>
+        <v>9202.026591556954</v>
       </c>
       <c r="B16">
         <v>53407</v>
@@ -12955,7 +12955,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>9328.590348209364</v>
+        <v>9547.778234222387</v>
       </c>
       <c r="B17">
         <v>53407</v>
@@ -12966,7 +12966,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5232.738205708747</v>
+        <v>11022.979980265256</v>
       </c>
       <c r="B18">
         <v>53407</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>7924.6625406064595</v>
+        <v>10311.770252867042</v>
       </c>
       <c r="B19">
         <v>53407</v>
@@ -12988,7 +12988,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>9436.685111733877</v>
+        <v>10046.785163146727</v>
       </c>
       <c r="B20">
         <v>53407</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2863.7654771862603</v>
+        <v>10212.331098371871</v>
       </c>
       <c r="B21">
         <v>53407</v>
@@ -13010,7 +13010,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>5103.123610457187</v>
+        <v>5354.160333241296</v>
       </c>
       <c r="B22">
         <v>53407</v>
@@ -13021,7 +13021,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>10621.87811770305</v>
+        <v>4395.84985647277</v>
       </c>
       <c r="B23">
         <v>53407</v>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>7641.394847301599</v>
+        <v>3419.816199494574</v>
       </c>
       <c r="B24">
         <v>53407</v>
@@ -13043,7 +13043,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>5367.91716967935</v>
+        <v>10529.149845715994</v>
       </c>
       <c r="B25">
         <v>53407</v>
@@ -13054,7 +13054,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>5467.011152874719</v>
+        <v>5676.279161164269</v>
       </c>
       <c r="B26">
         <v>53407</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>7738.953865745252</v>
+        <v>9950.365558503252</v>
       </c>
       <c r="B27">
         <v>53407</v>
@@ -13076,7 +13076,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4826.103548820252</v>
+        <v>4706.3284017884125</v>
       </c>
       <c r="B28">
         <v>53407</v>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>6263.3884345006145</v>
+        <v>6264.278803484768</v>
       </c>
       <c r="B29">
         <v>53407</v>
@@ -13098,7 +13098,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>8806.587946091964</v>
+        <v>5582.065215708822</v>
       </c>
       <c r="B30">
         <v>53407</v>
@@ -13109,7 +13109,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4839.029653592154</v>
+        <v>5029.3441188785455</v>
       </c>
       <c r="B31">
         <v>53407</v>
@@ -13120,7 +13120,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>6909.25261888018</v>
+        <v>11032.344702383336</v>
       </c>
       <c r="B32">
         <v>53407</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5775.838472512347</v>
+        <v>6642.664042336299</v>
       </c>
       <c r="B33">
         <v>53407</v>
@@ -13142,7 +13142,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>6732.886519350411</v>
+        <v>9775.129347292188</v>
       </c>
       <c r="B34">
         <v>53407</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5163.296978525072</v>
+        <v>7226.062207917352</v>
       </c>
       <c r="B35">
         <v>53407</v>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>3182.5120197930128</v>
+        <v>7596.185417321749</v>
       </c>
       <c r="B36">
         <v>53407</v>
@@ -13175,7 +13175,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>6922.869800254848</v>
+        <v>8636.225948553118</v>
       </c>
       <c r="B37">
         <v>53407</v>
@@ -13186,7 +13186,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>4750.224328639239</v>
+        <v>4357.28378654034</v>
       </c>
       <c r="B38">
         <v>53407</v>
@@ -13197,7 +13197,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>7195.875548773543</v>
+        <v>10644.27008495587</v>
       </c>
       <c r="B39">
         <v>53407</v>
@@ -13208,7 +13208,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>7678.796022567949</v>
+        <v>7005.521226484244</v>
       </c>
       <c r="B40">
         <v>53407</v>
@@ -13219,7 +13219,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>9194.568234056229</v>
+        <v>7274.872273501728</v>
       </c>
       <c r="B41">
         <v>53407</v>
@@ -13230,7 +13230,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>6449.280574202781</v>
+        <v>5240.844776273658</v>
       </c>
       <c r="B42">
         <v>53407</v>
@@ -13241,7 +13241,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>8932.955330841862</v>
+        <v>6857.788859419031</v>
       </c>
       <c r="B43">
         <v>53407</v>
@@ -13252,7 +13252,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>10608.448414397768</v>
+        <v>12893.058157497828</v>
       </c>
       <c r="B44">
         <v>53407</v>
@@ -13263,7 +13263,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>6138.157760510998</v>
+        <v>11589.24540313132</v>
       </c>
       <c r="B45">
         <v>53407</v>
@@ -13274,7 +13274,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>6563.526131116818</v>
+        <v>3556.5024602283</v>
       </c>
       <c r="B46">
         <v>53407</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>8504.004109333924</v>
+        <v>9154.504981836928</v>
       </c>
       <c r="B47">
         <v>53407</v>
@@ -13296,7 +13296,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>14897.424466442199</v>
+        <v>11324.45176951071</v>
       </c>
       <c r="B48">
         <v>53407</v>
@@ -13307,7 +13307,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>4265.562465619549</v>
+        <v>7275.693185822135</v>
       </c>
       <c r="B49">
         <v>53407</v>
@@ -13318,7 +13318,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>7787.65499640842</v>
+        <v>5644.705676348011</v>
       </c>
       <c r="B50">
         <v>53407</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>5424.105600471579</v>
+        <v>9427.056433199374</v>
       </c>
       <c r="B51">
         <v>53407</v>
@@ -13340,7 +13340,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>9143.967505325882</v>
+        <v>9701.726544185705</v>
       </c>
       <c r="B52">
         <v>53407</v>
@@ -13351,7 +13351,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>11279.329355132977</v>
+        <v>5944.726149139768</v>
       </c>
       <c r="B53">
         <v>53407</v>
@@ -13362,7 +13362,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>9999.886676314842</v>
+        <v>9890.28442253629</v>
       </c>
       <c r="B54">
         <v>53407</v>
@@ -13373,7 +13373,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>9486.41663181765</v>
+        <v>8158.77953051144</v>
       </c>
       <c r="B55">
         <v>53407</v>
@@ -13384,7 +13384,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>8324.418710034828</v>
+        <v>6522.142849694417</v>
       </c>
       <c r="B56">
         <v>53407</v>
@@ -13395,7 +13395,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>5182.161596081543</v>
+        <v>11104.14937880358</v>
       </c>
       <c r="B57">
         <v>53407</v>
@@ -13406,7 +13406,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>7260.904776004796</v>
+        <v>4631.59674065334</v>
       </c>
       <c r="B58">
         <v>53407</v>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>12245.036665719783</v>
+        <v>5898.262519951429</v>
       </c>
       <c r="B59">
         <v>53407</v>
@@ -13428,7 +13428,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>6552.25063247243</v>
+        <v>7886.834022093221</v>
       </c>
       <c r="B60">
         <v>53407</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>6014.289124855553</v>
+        <v>4966.32499401551</v>
       </c>
       <c r="B61">
         <v>53407</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>7519.049948224636</v>
+        <v>6083.3483991633275</v>
       </c>
       <c r="B62">
         <v>53407</v>
@@ -13461,7 +13461,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>8343.661227879666</v>
+        <v>4788.061091657209</v>
       </c>
       <c r="B63">
         <v>53407</v>
@@ -13472,7 +13472,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>6692.557269862837</v>
+        <v>11749.935386375773</v>
       </c>
       <c r="B64">
         <v>53407</v>
@@ -13483,7 +13483,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>6254.23625765622</v>
+        <v>7987.643917711688</v>
       </c>
       <c r="B65">
         <v>53407</v>
@@ -13494,7 +13494,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>7924.708370734321</v>
+        <v>5500.194503365249</v>
       </c>
       <c r="B66">
         <v>53407</v>
@@ -13505,7 +13505,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>6949.810310541574</v>
+        <v>7777.030604845142</v>
       </c>
       <c r="B67">
         <v>53407</v>
@@ -13516,7 +13516,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>7228.768905529716</v>
+        <v>8376.57094216467</v>
       </c>
       <c r="B68">
         <v>53407</v>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>6724.5855920004615</v>
+        <v>4317.88455010727</v>
       </c>
       <c r="B69">
         <v>53407</v>
@@ -13538,7 +13538,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>8647.341328976856</v>
+        <v>4498.303224222407</v>
       </c>
       <c r="B70">
         <v>53407</v>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>9338.777649224758</v>
+        <v>8020.75660098637</v>
       </c>
       <c r="B71">
         <v>53407</v>
@@ -13560,7 +13560,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>6257.02694615871</v>
+        <v>9536.820950841142</v>
       </c>
       <c r="B72">
         <v>53407</v>
@@ -13571,7 +13571,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>8387.54495624644</v>
+        <v>6250.075559855839</v>
       </c>
       <c r="B73">
         <v>53407</v>
@@ -13582,7 +13582,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>7320.324200299562</v>
+        <v>11268.479282503025</v>
       </c>
       <c r="B74">
         <v>53407</v>
@@ -13593,7 +13593,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>8460.403806597438</v>
+        <v>9173.995390554472</v>
       </c>
       <c r="B75">
         <v>53407</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>11423.803587344706</v>
+        <v>6711.851431170895</v>
       </c>
       <c r="B76">
         <v>53407</v>
@@ -13615,7 +13615,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>6215.381363834631</v>
+        <v>2902.9249830718936</v>
       </c>
       <c r="B77">
         <v>53407</v>
@@ -13626,7 +13626,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>7111.642980519769</v>
+        <v>10577.627497137171</v>
       </c>
       <c r="B78">
         <v>53407</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>7930.7319353486255</v>
+        <v>6336.042066774349</v>
       </c>
       <c r="B79">
         <v>53407</v>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>7802.324848533613</v>
+        <v>11713.235090492171</v>
       </c>
       <c r="B80">
         <v>53407</v>
@@ -13659,7 +13659,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>7427.4252466746375</v>
+        <v>6354.942386313924</v>
       </c>
       <c r="B81">
         <v>53407</v>
@@ -13670,7 +13670,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>7082.907377497786</v>
+        <v>7279.335688300323</v>
       </c>
       <c r="B82">
         <v>53407</v>
@@ -13681,7 +13681,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>8650.203856077735</v>
+        <v>6014.491559166834</v>
       </c>
       <c r="B83">
         <v>53407</v>
@@ -13692,7 +13692,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>6297.677012597373</v>
+        <v>7129.949232268065</v>
       </c>
       <c r="B84">
         <v>53407</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>4934.505660218474</v>
+        <v>8170.802526904399</v>
       </c>
       <c r="B85">
         <v>53407</v>
@@ -13714,7 +13714,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>11668.32250745872</v>
+        <v>8055.883246482826</v>
       </c>
       <c r="B86">
         <v>53407</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>6168.976950199959</v>
+        <v>9864.210411727627</v>
       </c>
       <c r="B87">
         <v>53407</v>
@@ -13736,7 +13736,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>6828.996842799808</v>
+        <v>10596.184015986684</v>
       </c>
       <c r="B88">
         <v>53407</v>
@@ -13747,7 +13747,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>8181.439296834471</v>
+        <v>5036.575694791249</v>
       </c>
       <c r="B89">
         <v>53407</v>
@@ -13758,7 +13758,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>9759.449866304953</v>
+        <v>8187.829204094211</v>
       </c>
       <c r="B90">
         <v>53407</v>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>5698.009370255598</v>
+        <v>9144.000456663593</v>
       </c>
       <c r="B91">
         <v>53407</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>8260.424981946928</v>
+        <v>7253.144293451059</v>
       </c>
       <c r="B92">
         <v>53407</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>3710.3549017514697</v>
+        <v>8072.517429055974</v>
       </c>
       <c r="B93">
         <v>53407</v>
@@ -13802,7 +13802,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>8331.690270015051</v>
+        <v>7856.908322931764</v>
       </c>
       <c r="B94">
         <v>53407</v>
@@ -13813,7 +13813,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>5351.541017726431</v>
+        <v>4512.800156608657</v>
       </c>
       <c r="B95">
         <v>53407</v>
@@ -13824,7 +13824,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>8717.406108820185</v>
+        <v>5242.284446332758</v>
       </c>
       <c r="B96">
         <v>53407</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>11656.89550257566</v>
+        <v>8432.905880442471</v>
       </c>
       <c r="B97">
         <v>53407</v>
@@ -13846,7 +13846,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>8698.234557091891</v>
+        <v>10390.762464155663</v>
       </c>
       <c r="B98">
         <v>53407</v>
@@ -13857,7 +13857,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>4961.381946719332</v>
+        <v>11338.612386100282</v>
       </c>
       <c r="B99">
         <v>53407</v>
@@ -13868,7 +13868,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>4271.36445135089</v>
+        <v>7598.88401317253</v>
       </c>
       <c r="B100">
         <v>53407</v>
@@ -13879,7 +13879,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>4924.585842684746</v>
+        <v>6655.209538044604</v>
       </c>
       <c r="B101">
         <v>53407</v>
@@ -15038,7 +15038,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>47.57926965991461</v>
+        <v>50.449839392241984</v>
       </c>
       <c r="B2">
         <v>6264149</v>
@@ -15049,7 +15049,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>43.103918357888396</v>
+        <v>109.64729274701217</v>
       </c>
       <c r="B3">
         <v>6264149</v>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>43.42557983827199</v>
+        <v>52.03462500928423</v>
       </c>
       <c r="B4">
         <v>6264149</v>
@@ -15071,7 +15071,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>48.17316190173465</v>
+        <v>42.92331560710173</v>
       </c>
       <c r="B5">
         <v>6264149</v>
@@ -15082,7 +15082,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>45.26069644779443</v>
+        <v>44.857968191602374</v>
       </c>
       <c r="B6">
         <v>6264149</v>
@@ -15093,7 +15093,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>44.5171197266315</v>
+        <v>47.402345011676005</v>
       </c>
       <c r="B7">
         <v>6264149</v>
@@ -15104,7 +15104,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>206.07590849426566</v>
+        <v>47.67321637810311</v>
       </c>
       <c r="B8">
         <v>6264149</v>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>44.05451461606771</v>
+        <v>44.406708991570575</v>
       </c>
       <c r="B9">
         <v>6264149</v>
@@ -15126,7 +15126,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>43.96452065127862</v>
+        <v>43.32971746350071</v>
       </c>
       <c r="B10">
         <v>6264149</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>43.33679385648643</v>
+        <v>138.27436232558966</v>
       </c>
       <c r="B11">
         <v>6264149</v>
@@ -15148,7 +15148,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>55.87200638192773</v>
+        <v>43.79760981122074</v>
       </c>
       <c r="B12">
         <v>6264149</v>
@@ -15159,7 +15159,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>43.602587778413685</v>
+        <v>45.10772863916058</v>
       </c>
       <c r="B13">
         <v>6264149</v>
@@ -15170,7 +15170,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>43.66757556359745</v>
+        <v>43.98407807627221</v>
       </c>
       <c r="B14">
         <v>6264149</v>
@@ -15181,7 +15181,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>45.774769600359896</v>
+        <v>45.042254617238356</v>
       </c>
       <c r="B15">
         <v>6264149</v>
@@ -15192,7 +15192,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>44.09536027013042</v>
+        <v>48.84763842841669</v>
       </c>
       <c r="B16">
         <v>6264149</v>
@@ -15203,7 +15203,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>51.87063290840778</v>
+        <v>50.50754739387632</v>
       </c>
       <c r="B17">
         <v>6264149</v>
@@ -15214,7 +15214,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>42.97909506890234</v>
+        <v>128.0279631203522</v>
       </c>
       <c r="B18">
         <v>6264149</v>
@@ -15225,7 +15225,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>279.6450003926772</v>
+        <v>46.54618256505201</v>
       </c>
       <c r="B19">
         <v>6264149</v>
@@ -15236,7 +15236,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>58.85663026462525</v>
+        <v>45.47741147131697</v>
       </c>
       <c r="B20">
         <v>6264149</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>161.33459631837076</v>
+        <v>47.047185413460824</v>
       </c>
       <c r="B21">
         <v>6264149</v>
@@ -15258,7 +15258,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>49.26122029220314</v>
+        <v>44.044009154630835</v>
       </c>
       <c r="B22">
         <v>6264149</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>110.48299620201114</v>
+        <v>105.85746010524397</v>
       </c>
       <c r="B23">
         <v>6264149</v>
@@ -15280,7 +15280,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>44.56937383837524</v>
+        <v>45.01726684720808</v>
       </c>
       <c r="B24">
         <v>6264149</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>47.67953843022407</v>
+        <v>44.04311296157306</v>
       </c>
       <c r="B25">
         <v>6264149</v>
@@ -15302,7 +15302,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>46.93452176819498</v>
+        <v>49.06443173837503</v>
       </c>
       <c r="B26">
         <v>6264149</v>
@@ -15313,7 +15313,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>47.2966351878565</v>
+        <v>110.91176628461552</v>
       </c>
       <c r="B27">
         <v>6264149</v>
@@ -15324,7 +15324,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>47.56897303906336</v>
+        <v>42.48852389682952</v>
       </c>
       <c r="B28">
         <v>6264149</v>
@@ -15335,7 +15335,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>115.76228552903913</v>
+        <v>46.22766320673699</v>
       </c>
       <c r="B29">
         <v>6264149</v>
@@ -15346,7 +15346,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>49.06525017363807</v>
+        <v>108.48162996874673</v>
       </c>
       <c r="B30">
         <v>6264149</v>
@@ -15357,7 +15357,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>105.72063071122128</v>
+        <v>47.388262404682564</v>
       </c>
       <c r="B31">
         <v>6264149</v>
@@ -15368,7 +15368,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>44.44105217902885</v>
+        <v>185.61059289059492</v>
       </c>
       <c r="B32">
         <v>6264149</v>
@@ -15379,7 +15379,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>46.796844748894856</v>
+        <v>44.815914028783304</v>
       </c>
       <c r="B33">
         <v>6264149</v>
@@ -15390,7 +15390,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>114.39293542170122</v>
+        <v>43.54362279910849</v>
       </c>
       <c r="B34">
         <v>6264149</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>42.917033502006454</v>
+        <v>43.45758843590961</v>
       </c>
       <c r="B35">
         <v>6264149</v>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>117.00963068913123</v>
+        <v>45.265571775957966</v>
       </c>
       <c r="B36">
         <v>6264149</v>
@@ -15423,7 +15423,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>57.13629805174128</v>
+        <v>48.23278452840297</v>
       </c>
       <c r="B37">
         <v>6264149</v>
@@ -15434,7 +15434,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>162.60483234478244</v>
+        <v>242.07600098313853</v>
       </c>
       <c r="B38">
         <v>6264149</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>47.07031040919804</v>
+        <v>43.6293676279151</v>
       </c>
       <c r="B39">
         <v>6264149</v>
@@ -15456,7 +15456,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>47.512812422203936</v>
+        <v>69.91657590498806</v>
       </c>
       <c r="B40">
         <v>6264149</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>48.38132588238676</v>
+        <v>44.944991977098624</v>
       </c>
       <c r="B41">
         <v>6264149</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>111.38386436493766</v>
+        <v>124.05638809291392</v>
       </c>
       <c r="B42">
         <v>6264149</v>
@@ -15489,7 +15489,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>51.40119293104106</v>
+        <v>49.24756180812096</v>
       </c>
       <c r="B43">
         <v>6264149</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>112.15204242470976</v>
+        <v>44.167995567396645</v>
       </c>
       <c r="B44">
         <v>6264149</v>
@@ -15511,7 +15511,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>48.334005234519736</v>
+        <v>43.554943431255204</v>
       </c>
       <c r="B45">
         <v>6264149</v>
@@ -15522,7 +15522,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>44.090579943517334</v>
+        <v>44.73994425388791</v>
       </c>
       <c r="B46">
         <v>6264149</v>
@@ -15533,7 +15533,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>43.74328172298048</v>
+        <v>136.0047411269072</v>
       </c>
       <c r="B47">
         <v>6264149</v>
@@ -15544,7 +15544,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>43.60517131601273</v>
+        <v>44.51909222565701</v>
       </c>
       <c r="B48">
         <v>6264149</v>
@@ -15555,7 +15555,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>43.46709369630917</v>
+        <v>112.55603561575985</v>
       </c>
       <c r="B49">
         <v>6264149</v>
@@ -15566,7 +15566,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>44.80658061011216</v>
+        <v>44.52819618052639</v>
       </c>
       <c r="B50">
         <v>6264149</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>43.92617417819423</v>
+        <v>52.80657890387564</v>
       </c>
       <c r="B51">
         <v>6264149</v>
@@ -15588,7 +15588,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>43.434725125236376</v>
+        <v>122.50308147283528</v>
       </c>
       <c r="B52">
         <v>6264149</v>
@@ -15599,7 +15599,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>43.95365335072851</v>
+        <v>131.92076080804463</v>
       </c>
       <c r="B53">
         <v>6264149</v>
@@ -15610,7 +15610,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>43.38281186030062</v>
+        <v>52.994271510743985</v>
       </c>
       <c r="B54">
         <v>6264149</v>
@@ -15621,7 +15621,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>43.9808274608805</v>
+        <v>107.9662256934691</v>
       </c>
       <c r="B55">
         <v>6264149</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>43.743283173841846</v>
+        <v>43.024037829224724</v>
       </c>
       <c r="B56">
         <v>6264149</v>
@@ -15643,7 +15643,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>43.22598860171017</v>
+        <v>43.488443560469</v>
       </c>
       <c r="B57">
         <v>6264149</v>
@@ -15654,7 +15654,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>44.26709214445022</v>
+        <v>44.25436462311275</v>
       </c>
       <c r="B58">
         <v>6264149</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>48.148185068536826</v>
+        <v>188.48344801458637</v>
       </c>
       <c r="B59">
         <v>6264149</v>
@@ -15676,7 +15676,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>47.791981595682515</v>
+        <v>44.06125855237951</v>
       </c>
       <c r="B60">
         <v>6264149</v>
@@ -15687,7 +15687,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>44.497005952622125</v>
+        <v>44.43997692398735</v>
       </c>
       <c r="B61">
         <v>6264149</v>
@@ -15698,7 +15698,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>115.28889818165925</v>
+        <v>44.98214121676785</v>
       </c>
       <c r="B62">
         <v>6264149</v>
@@ -15709,7 +15709,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>42.90351433823896</v>
+        <v>107.38514429414178</v>
       </c>
       <c r="B63">
         <v>6264149</v>
@@ -15720,7 +15720,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>53.562865682644784</v>
+        <v>47.401614816669394</v>
       </c>
       <c r="B64">
         <v>6264149</v>
@@ -15731,7 +15731,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>44.13741784506353</v>
+        <v>44.37640542570878</v>
       </c>
       <c r="B65">
         <v>6264149</v>
@@ -15742,7 +15742,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>44.0875716304779</v>
+        <v>44.97917229249034</v>
       </c>
       <c r="B66">
         <v>6264149</v>
@@ -15753,7 +15753,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>116.49583851326675</v>
+        <v>50.89619480774777</v>
       </c>
       <c r="B67">
         <v>6264149</v>
@@ -15764,7 +15764,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>112.77039066558518</v>
+        <v>43.50941247286524</v>
       </c>
       <c r="B68">
         <v>6264149</v>
@@ -15775,7 +15775,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>46.90451895531083</v>
+        <v>44.554905259028715</v>
       </c>
       <c r="B69">
         <v>6264149</v>
@@ -15786,7 +15786,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>44.33958262130603</v>
+        <v>43.98343857243765</v>
       </c>
       <c r="B70">
         <v>6264149</v>
@@ -15797,7 +15797,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>48.17498353306064</v>
+        <v>45.01044441742654</v>
       </c>
       <c r="B71">
         <v>6264149</v>
@@ -15808,7 +15808,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>44.105912261890424</v>
+        <v>43.450928793296995</v>
       </c>
       <c r="B72">
         <v>6264149</v>
@@ -15819,7 +15819,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>43.492761167533736</v>
+        <v>47.788426434043366</v>
       </c>
       <c r="B73">
         <v>6264149</v>
@@ -15830,7 +15830,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>44.2659153833921</v>
+        <v>50.46384513914839</v>
       </c>
       <c r="B74">
         <v>6264149</v>
@@ -15841,7 +15841,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>49.32976206187947</v>
+        <v>43.81588336476189</v>
       </c>
       <c r="B75">
         <v>6264149</v>
@@ -15852,7 +15852,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>116.8312428169018</v>
+        <v>43.985723471501174</v>
       </c>
       <c r="B76">
         <v>6264149</v>
@@ -15863,7 +15863,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>43.17978343251693</v>
+        <v>554.1767621506959</v>
       </c>
       <c r="B77">
         <v>6264149</v>
@@ -15874,7 +15874,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>47.834978916544046</v>
+        <v>47.38652651873692</v>
       </c>
       <c r="B78">
         <v>6264149</v>
@@ -15885,7 +15885,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>43.88066160834081</v>
+        <v>44.10661751427097</v>
       </c>
       <c r="B79">
         <v>6264149</v>
@@ -15896,7 +15896,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>105.8205499655242</v>
+        <v>44.321265508275005</v>
       </c>
       <c r="B80">
         <v>6264149</v>
@@ -15907,7 +15907,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>43.95996042555225</v>
+        <v>52.026743333479246</v>
       </c>
       <c r="B81">
         <v>6264149</v>
@@ -15918,7 +15918,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>44.36979282618438</v>
+        <v>46.80783257998223</v>
       </c>
       <c r="B82">
         <v>6264149</v>
@@ -15929,7 +15929,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>43.292553352575474</v>
+        <v>43.48987229009741</v>
       </c>
       <c r="B83">
         <v>6264149</v>
@@ -15940,7 +15940,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>43.65460139204195</v>
+        <v>47.76031100112075</v>
       </c>
       <c r="B84">
         <v>6264149</v>
@@ -15951,7 +15951,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>45.85737461664863</v>
+        <v>45.30202233374342</v>
       </c>
       <c r="B85">
         <v>6264149</v>
@@ -15962,7 +15962,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>43.83487945317612</v>
+        <v>45.49510707415906</v>
       </c>
       <c r="B86">
         <v>6264149</v>
@@ -15973,7 +15973,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>45.071211997422566</v>
+        <v>47.284908619526526</v>
       </c>
       <c r="B87">
         <v>6264149</v>
@@ -15984,7 +15984,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>43.88578793083206</v>
+        <v>43.484807799274556</v>
       </c>
       <c r="B88">
         <v>6264149</v>
@@ -15995,7 +15995,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>142.85389321019696</v>
+        <v>43.22830985472743</v>
       </c>
       <c r="B89">
         <v>6264149</v>
@@ -16006,7 +16006,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>44.5829800488519</v>
+        <v>50.10581375784101</v>
       </c>
       <c r="B90">
         <v>6264149</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>133.74975565815478</v>
+        <v>47.57681076878223</v>
       </c>
       <c r="B91">
         <v>6264149</v>
@@ -16028,7 +16028,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>120.27485930462792</v>
+        <v>43.51302152510287</v>
       </c>
       <c r="B92">
         <v>6264149</v>
@@ -16039,7 +16039,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>44.82806996313992</v>
+        <v>49.573866838067815</v>
       </c>
       <c r="B93">
         <v>6264149</v>
@@ -16050,7 +16050,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>48.12640695711816</v>
+        <v>44.060097406236224</v>
       </c>
       <c r="B94">
         <v>6264149</v>
@@ -16061,7 +16061,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>44.80082495266402</v>
+        <v>44.25627556906941</v>
       </c>
       <c r="B95">
         <v>6264149</v>
@@ -16072,7 +16072,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>43.91746801584474</v>
+        <v>47.67622675751572</v>
       </c>
       <c r="B96">
         <v>6264149</v>
@@ -16083,7 +16083,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>44.05166928956082</v>
+        <v>44.81491091662437</v>
       </c>
       <c r="B97">
         <v>6264149</v>
@@ -16094,7 +16094,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>47.10901864669327</v>
+        <v>51.34021878525406</v>
       </c>
       <c r="B98">
         <v>6264149</v>
@@ -16105,7 +16105,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>43.65885014170428</v>
+        <v>47.96067681780091</v>
       </c>
       <c r="B99">
         <v>6264149</v>
@@ -16116,7 +16116,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>44.51776631558972</v>
+        <v>44.27894731356849</v>
       </c>
       <c r="B100">
         <v>6264149</v>
@@ -16127,7 +16127,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>50.321149447715484</v>
+        <v>43.83609514559484</v>
       </c>
       <c r="B101">
         <v>6264149</v>
@@ -16162,7 +16162,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>409.3310127037993</v>
+        <v>435.0378796626009</v>
       </c>
       <c r="B2">
         <v>1008007</v>
@@ -16173,7 +16173,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>367.63903398697335</v>
+        <v>427.9557827912233</v>
       </c>
       <c r="B3">
         <v>1008007</v>
@@ -16184,7 +16184,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>427.0900737170816</v>
+        <v>427.9199252984449</v>
       </c>
       <c r="B4">
         <v>1008007</v>
@@ -16195,7 +16195,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>391.4873728491374</v>
+        <v>322.38387992507467</v>
       </c>
       <c r="B5">
         <v>1008007</v>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>339.66636726123124</v>
+        <v>396.26029652393794</v>
       </c>
       <c r="B6">
         <v>1008007</v>
@@ -16217,7 +16217,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>372.25411272585177</v>
+        <v>331.6172309256964</v>
       </c>
       <c r="B7">
         <v>1008007</v>
@@ -16228,7 +16228,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>374.38272568293945</v>
+        <v>360.1994211855905</v>
       </c>
       <c r="B8">
         <v>1008007</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>414.8979338038448</v>
+        <v>418.8370736322432</v>
       </c>
       <c r="B9">
         <v>1008007</v>
@@ -16250,7 +16250,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>378.7097995365772</v>
+        <v>436.78272089985796</v>
       </c>
       <c r="B10">
         <v>1008007</v>
@@ -16261,7 +16261,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>462.516576788369</v>
+        <v>482.8081678985321</v>
       </c>
       <c r="B11">
         <v>1008007</v>
@@ -16272,7 +16272,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>397.49064339359836</v>
+        <v>429.55070760710566</v>
       </c>
       <c r="B12">
         <v>1008007</v>
@@ -16283,7 +16283,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>432.1880581841506</v>
+        <v>359.4115874611294</v>
       </c>
       <c r="B13">
         <v>1008007</v>
@@ -16294,7 +16294,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>383.44095699802926</v>
+        <v>385.49771542230764</v>
       </c>
       <c r="B14">
         <v>1008007</v>
@@ -16305,7 +16305,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>456.4678997551676</v>
+        <v>358.05605935024266</v>
       </c>
       <c r="B15">
         <v>1008007</v>
@@ -16316,7 +16316,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>399.2951035518855</v>
+        <v>358.6362303107435</v>
       </c>
       <c r="B16">
         <v>1008007</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>411.467611107798</v>
+        <v>444.29874224104566</v>
       </c>
       <c r="B17">
         <v>1008007</v>
@@ -16338,7 +16338,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>435.1905386091555</v>
+        <v>371.00961285688214</v>
       </c>
       <c r="B18">
         <v>1008007</v>
@@ -16349,7 +16349,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>414.81282876218694</v>
+        <v>415.2041065981688</v>
       </c>
       <c r="B19">
         <v>1008007</v>
@@ -16360,7 +16360,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>362.1407679078774</v>
+        <v>399.4305435842932</v>
       </c>
       <c r="B20">
         <v>1008007</v>
@@ -16371,7 +16371,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>477.0977208616675</v>
+        <v>452.3858267086959</v>
       </c>
       <c r="B21">
         <v>1008007</v>
@@ -16382,7 +16382,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>409.20772653192444</v>
+        <v>420.76790756605186</v>
       </c>
       <c r="B22">
         <v>1008007</v>
@@ -16393,7 +16393,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>431.07647821047766</v>
+        <v>458.1093436880696</v>
       </c>
       <c r="B23">
         <v>1008007</v>
@@ -16404,7 +16404,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>444.9588688235173</v>
+        <v>438.6951488637068</v>
       </c>
       <c r="B24">
         <v>1008007</v>
@@ -16415,7 +16415,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>436.99005682187374</v>
+        <v>441.61818469078173</v>
       </c>
       <c r="B25">
         <v>1008007</v>
@@ -16426,7 +16426,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>401.02856145622644</v>
+        <v>385.0654281382598</v>
       </c>
       <c r="B26">
         <v>1008007</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>435.0266210457105</v>
+        <v>461.5587396650466</v>
       </c>
       <c r="B27">
         <v>1008007</v>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>416.2294051192598</v>
+        <v>407.02123293468924</v>
       </c>
       <c r="B28">
         <v>1008007</v>
@@ -16459,7 +16459,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>431.2299777215073</v>
+        <v>332.3855125486003</v>
       </c>
       <c r="B29">
         <v>1008007</v>
@@ -16470,7 +16470,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>477.71191777534364</v>
+        <v>342.56933459351967</v>
       </c>
       <c r="B30">
         <v>1008007</v>
@@ -16481,7 +16481,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>444.5901366021013</v>
+        <v>375.3069139628066</v>
       </c>
       <c r="B31">
         <v>1008007</v>
@@ -16492,7 +16492,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>446.5713051859215</v>
+        <v>434.9020263380322</v>
       </c>
       <c r="B32">
         <v>1008007</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>384.4734300887048</v>
+        <v>393.4019539750266</v>
       </c>
       <c r="B33">
         <v>1008007</v>
@@ -16514,7 +16514,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>435.0103996906545</v>
+        <v>445.3097837452156</v>
       </c>
       <c r="B34">
         <v>1008007</v>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>351.607334441631</v>
+        <v>439.76979896457283</v>
       </c>
       <c r="B35">
         <v>1008007</v>
@@ -16536,7 +16536,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>442.10177851674837</v>
+        <v>450.82867736374567</v>
       </c>
       <c r="B36">
         <v>1008007</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>431.24013614169525</v>
+        <v>451.6692556366141</v>
       </c>
       <c r="B37">
         <v>1008007</v>
@@ -16558,7 +16558,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>392.7143095727672</v>
+        <v>455.08695572648287</v>
       </c>
       <c r="B38">
         <v>1008007</v>
@@ -16569,7 +16569,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>386.56784461334723</v>
+        <v>359.9452247008604</v>
       </c>
       <c r="B39">
         <v>1008007</v>
@@ -16580,7 +16580,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>331.8117662133901</v>
+        <v>373.11803830497405</v>
       </c>
       <c r="B40">
         <v>1008007</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>458.57138566748876</v>
+        <v>426.44225796034726</v>
       </c>
       <c r="B41">
         <v>1008007</v>
@@ -16602,7 +16602,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>454.0725970911229</v>
+        <v>348.38705515538027</v>
       </c>
       <c r="B42">
         <v>1008007</v>
@@ -16613,7 +16613,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>358.2632090135904</v>
+        <v>412.05462526917194</v>
       </c>
       <c r="B43">
         <v>1008007</v>
@@ -16624,7 +16624,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>381.5662751362805</v>
+        <v>401.9125025629287</v>
       </c>
       <c r="B44">
         <v>1008007</v>
@@ -16635,7 +16635,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>421.05919655044664</v>
+        <v>424.40837195254494</v>
       </c>
       <c r="B45">
         <v>1008007</v>
@@ -16646,7 +16646,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>372.53447150878117</v>
+        <v>344.6869343311978</v>
       </c>
       <c r="B46">
         <v>1008007</v>
@@ -16657,7 +16657,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>427.9078798757165</v>
+        <v>382.04937459657634</v>
       </c>
       <c r="B47">
         <v>1008007</v>
@@ -16668,7 +16668,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>436.1945044494964</v>
+        <v>339.8641569895573</v>
       </c>
       <c r="B48">
         <v>1008007</v>
@@ -16679,7 +16679,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>456.0393541373321</v>
+        <v>379.17733090105924</v>
       </c>
       <c r="B49">
         <v>1008007</v>
@@ -16690,7 +16690,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>469.4378531749353</v>
+        <v>386.79164780779445</v>
       </c>
       <c r="B50">
         <v>1008007</v>
@@ -16701,7 +16701,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>376.0935348037655</v>
+        <v>404.3425746964307</v>
       </c>
       <c r="B51">
         <v>1008007</v>
@@ -16712,7 +16712,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>365.73656516627784</v>
+        <v>384.4129093206596</v>
       </c>
       <c r="B52">
         <v>1008007</v>
@@ -16723,7 +16723,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>425.57301801938826</v>
+        <v>398.6825685661703</v>
       </c>
       <c r="B53">
         <v>1008007</v>
@@ -16734,7 +16734,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>386.7470652865388</v>
+        <v>416.15745050783846</v>
       </c>
       <c r="B54">
         <v>1008007</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>407.3707217489078</v>
+        <v>438.1428320809526</v>
       </c>
       <c r="B55">
         <v>1008007</v>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>469.56118322852797</v>
+        <v>447.46501178277435</v>
       </c>
       <c r="B56">
         <v>1008007</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>401.7535218069781</v>
+        <v>420.71602973536045</v>
       </c>
       <c r="B57">
         <v>1008007</v>
@@ -16778,7 +16778,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>431.76430907050894</v>
+        <v>352.7316442604718</v>
       </c>
       <c r="B58">
         <v>1008007</v>
@@ -16789,7 +16789,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>290.0471971320277</v>
+        <v>413.7092189242969</v>
       </c>
       <c r="B59">
         <v>1008007</v>
@@ -16800,7 +16800,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>341.60514972354815</v>
+        <v>392.9380464260259</v>
       </c>
       <c r="B60">
         <v>1008007</v>
@@ -16811,7 +16811,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>454.2989942295899</v>
+        <v>426.7943274017998</v>
       </c>
       <c r="B61">
         <v>1008007</v>
@@ -16822,7 +16822,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>395.92628866964293</v>
+        <v>416.36241014191137</v>
       </c>
       <c r="B62">
         <v>1008007</v>
@@ -16833,7 +16833,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>339.28680406818216</v>
+        <v>458.71744479884876</v>
       </c>
       <c r="B63">
         <v>1008007</v>
@@ -16844,7 +16844,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>448.2688914515398</v>
+        <v>374.18178465228294</v>
       </c>
       <c r="B64">
         <v>1008007</v>
@@ -16855,7 +16855,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>459.18103952068816</v>
+        <v>425.3548041069459</v>
       </c>
       <c r="B65">
         <v>1008007</v>
@@ -16866,7 +16866,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>337.69808829133746</v>
+        <v>452.0529795967589</v>
       </c>
       <c r="B66">
         <v>1008007</v>
@@ -16877,7 +16877,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>419.8204693955113</v>
+        <v>462.7699850798244</v>
       </c>
       <c r="B67">
         <v>1008007</v>
@@ -16888,7 +16888,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>343.1684424268519</v>
+        <v>478.08096923974483</v>
       </c>
       <c r="B68">
         <v>1008007</v>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>452.42970663403776</v>
+        <v>446.3256041863713</v>
       </c>
       <c r="B69">
         <v>1008007</v>
@@ -16910,7 +16910,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>448.3602303656836</v>
+        <v>421.5778558496057</v>
       </c>
       <c r="B70">
         <v>1008007</v>
@@ -16921,7 +16921,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>413.2968669077828</v>
+        <v>373.6663808109982</v>
       </c>
       <c r="B71">
         <v>1008007</v>
@@ -16932,7 +16932,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>388.3892253492267</v>
+        <v>366.7399558174261</v>
       </c>
       <c r="B72">
         <v>1008007</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>455.10651251189296</v>
+        <v>321.21721824246924</v>
       </c>
       <c r="B73">
         <v>1008007</v>
@@ -16954,7 +16954,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>413.81134552522184</v>
+        <v>401.2963733857189</v>
       </c>
       <c r="B74">
         <v>1008007</v>
@@ -16965,7 +16965,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>392.7409444664183</v>
+        <v>459.54138797410604</v>
       </c>
       <c r="B75">
         <v>1008007</v>
@@ -16976,7 +16976,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>449.2855648096438</v>
+        <v>447.89539695120624</v>
       </c>
       <c r="B76">
         <v>1008007</v>
@@ -16987,7 +16987,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>455.1604609054688</v>
+        <v>403.36390951909004</v>
       </c>
       <c r="B77">
         <v>1008007</v>
@@ -16998,7 +16998,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>476.709599926293</v>
+        <v>462.3697318122548</v>
       </c>
       <c r="B78">
         <v>1008007</v>
@@ -17009,7 +17009,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>459.91548455055243</v>
+        <v>352.81776954156277</v>
       </c>
       <c r="B79">
         <v>1008007</v>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>393.63746805204096</v>
+        <v>412.3233892918513</v>
       </c>
       <c r="B80">
         <v>1008007</v>
@@ -17031,7 +17031,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>366.5032803186236</v>
+        <v>460.145396783948</v>
       </c>
       <c r="B81">
         <v>1008007</v>
@@ -17042,7 +17042,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>406.1847810441071</v>
+        <v>433.4156736598027</v>
       </c>
       <c r="B82">
         <v>1008007</v>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>408.16229454229506</v>
+        <v>354.8979781322723</v>
       </c>
       <c r="B83">
         <v>1008007</v>
@@ -17064,7 +17064,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>368.98121400783674</v>
+        <v>393.1834169769742</v>
       </c>
       <c r="B84">
         <v>1008007</v>
@@ -17075,7 +17075,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>408.1986936736363</v>
+        <v>354.70317761623795</v>
       </c>
       <c r="B85">
         <v>1008007</v>
@@ -17086,7 +17086,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>431.15485901296773</v>
+        <v>406.31940741608383</v>
       </c>
       <c r="B86">
         <v>1008007</v>
@@ -17097,7 +17097,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>431.4621796144407</v>
+        <v>456.86101185649795</v>
       </c>
       <c r="B87">
         <v>1008007</v>
@@ -17108,7 +17108,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>412.7253050828827</v>
+        <v>371.71182187438365</v>
       </c>
       <c r="B88">
         <v>1008007</v>
@@ -17119,7 +17119,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>437.6679914231821</v>
+        <v>420.87606041584866</v>
       </c>
       <c r="B89">
         <v>1008007</v>
@@ -17130,7 +17130,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>382.9896545935335</v>
+        <v>337.0995279989656</v>
       </c>
       <c r="B90">
         <v>1008007</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>460.93108147424226</v>
+        <v>437.12492798619235</v>
       </c>
       <c r="B91">
         <v>1008007</v>
@@ -17152,7 +17152,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>444.7599650664068</v>
+        <v>413.08267535271796</v>
       </c>
       <c r="B92">
         <v>1008007</v>
@@ -17163,7 +17163,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>412.55062798251294</v>
+        <v>386.8921108471699</v>
       </c>
       <c r="B93">
         <v>1008007</v>
@@ -17174,7 +17174,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>444.9758351095617</v>
+        <v>413.03975058030784</v>
       </c>
       <c r="B94">
         <v>1008007</v>
@@ -17185,7 +17185,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>459.18161667645353</v>
+        <v>399.0272481997489</v>
       </c>
       <c r="B95">
         <v>1008007</v>
@@ -17196,7 +17196,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>353.77962058229696</v>
+        <v>429.99665881176134</v>
       </c>
       <c r="B96">
         <v>1008007</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>399.0210291203339</v>
+        <v>380.2533529163012</v>
       </c>
       <c r="B97">
         <v>1008007</v>
@@ -17218,7 +17218,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>408.83278450297587</v>
+        <v>435.4315346002747</v>
       </c>
       <c r="B98">
         <v>1008007</v>
@@ -17229,7 +17229,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>409.51895778472124</v>
+        <v>404.71263486967484</v>
       </c>
       <c r="B99">
         <v>1008007</v>
@@ -17240,7 +17240,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>421.90340633145513</v>
+        <v>325.05240887232316</v>
       </c>
       <c r="B100">
         <v>1008007</v>
@@ -17251,7 +17251,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>399.0743162051395</v>
+        <v>347.10950645934287</v>
       </c>
       <c r="B101">
         <v>1008007</v>
@@ -17286,7 +17286,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>6.946450298349456</v>
+        <v>7.783966565306608</v>
       </c>
       <c r="B2">
         <v>87121</v>
@@ -17297,7 +17297,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>9.092164290042394</v>
+        <v>10.63098553321426</v>
       </c>
       <c r="B3">
         <v>87121</v>
@@ -17308,7 +17308,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>8.767693592898686</v>
+        <v>10.70738584118062</v>
       </c>
       <c r="B4">
         <v>87121</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>7.774062478616205</v>
+        <v>7.685039286806747</v>
       </c>
       <c r="B5">
         <v>87121</v>
@@ -17330,7 +17330,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>8.844868167782009</v>
+        <v>9.42842850611002</v>
       </c>
       <c r="B6">
         <v>87121</v>
@@ -17341,7 +17341,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>10.938357677157693</v>
+        <v>8.394809707815948</v>
       </c>
       <c r="B7">
         <v>87121</v>
@@ -17352,7 +17352,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>9.070006418180947</v>
+        <v>8.915936756039322</v>
       </c>
       <c r="B8">
         <v>87121</v>
@@ -17363,7 +17363,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>9.285223323214463</v>
+        <v>7.329895336639689</v>
       </c>
       <c r="B9">
         <v>87121</v>
@@ -17374,7 +17374,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>9.465703437348157</v>
+        <v>11.567208841488615</v>
       </c>
       <c r="B10">
         <v>87121</v>
@@ -17385,7 +17385,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>8.088721495896113</v>
+        <v>8.847879543324726</v>
       </c>
       <c r="B11">
         <v>87121</v>
@@ -17396,7 +17396,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>6.71305953497092</v>
+        <v>8.50583776911176</v>
       </c>
       <c r="B12">
         <v>87121</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>7.354579087267309</v>
+        <v>8.13317939083282</v>
       </c>
       <c r="B13">
         <v>87121</v>
@@ -17418,7 +17418,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>7.910033094056768</v>
+        <v>8.32886752121901</v>
       </c>
       <c r="B14">
         <v>87121</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>11.510435751055583</v>
+        <v>7.695161689223614</v>
       </c>
       <c r="B15">
         <v>87121</v>
@@ -17440,7 +17440,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>7.462363068407383</v>
+        <v>7.664948128377894</v>
       </c>
       <c r="B16">
         <v>87121</v>
@@ -17451,7 +17451,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>9.641861984091609</v>
+        <v>9.352339978487128</v>
       </c>
       <c r="B17">
         <v>87121</v>
@@ -17462,7 +17462,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>7.309069281211379</v>
+        <v>9.078749313224224</v>
       </c>
       <c r="B18">
         <v>87121</v>
@@ -17473,7 +17473,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>9.616371684446868</v>
+        <v>9.480733593348019</v>
       </c>
       <c r="B19">
         <v>87121</v>
@@ -17484,7 +17484,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>7.886559160344401</v>
+        <v>9.80370015076798</v>
       </c>
       <c r="B20">
         <v>87121</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>9.274859692488304</v>
+        <v>7.160611693582458</v>
       </c>
       <c r="B21">
         <v>87121</v>
@@ -17506,7 +17506,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>9.19600286838367</v>
+        <v>7.257888727543216</v>
       </c>
       <c r="B22">
         <v>87121</v>
@@ -17517,7 +17517,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>6.291585305834499</v>
+        <v>8.881565102832516</v>
       </c>
       <c r="B23">
         <v>87121</v>
@@ -17528,7 +17528,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>7.240918042902896</v>
+        <v>11.784853250977655</v>
       </c>
       <c r="B24">
         <v>87121</v>
@@ -17539,7 +17539,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>7.265863391556865</v>
+        <v>7.692012298949603</v>
       </c>
       <c r="B25">
         <v>87121</v>
@@ -17550,7 +17550,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>5.383300554621712</v>
+        <v>7.575514640068741</v>
       </c>
       <c r="B26">
         <v>87121</v>
@@ -17561,7 +17561,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>6.481124127904536</v>
+        <v>7.696960398368265</v>
       </c>
       <c r="B27">
         <v>87121</v>
@@ -17572,7 +17572,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>7.724668719509735</v>
+        <v>7.25356906735141</v>
       </c>
       <c r="B28">
         <v>87121</v>
@@ -17583,7 +17583,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>8.769576142323949</v>
+        <v>8.322986975785543</v>
       </c>
       <c r="B29">
         <v>87121</v>
@@ -17594,7 +17594,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>8.558876848985419</v>
+        <v>7.404799046511053</v>
       </c>
       <c r="B30">
         <v>87121</v>
@@ -17605,7 +17605,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>8.7691352561789</v>
+        <v>10.417173593666778</v>
       </c>
       <c r="B31">
         <v>87121</v>
@@ -17616,7 +17616,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>10.51196633232018</v>
+        <v>10.01028667721251</v>
       </c>
       <c r="B32">
         <v>87121</v>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>8.319196718129911</v>
+        <v>10.504194601313964</v>
       </c>
       <c r="B33">
         <v>87121</v>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>10.334369143962043</v>
+        <v>7.088140859657798</v>
       </c>
       <c r="B34">
         <v>87121</v>
@@ -17649,7 +17649,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5.7894650138150645</v>
+        <v>8.336751256266583</v>
       </c>
       <c r="B35">
         <v>87121</v>
@@ -17660,7 +17660,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>9.055433294896405</v>
+        <v>8.828938640353856</v>
       </c>
       <c r="B36">
         <v>87121</v>
@@ -17671,7 +17671,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>9.187631231226046</v>
+        <v>8.078672034846017</v>
       </c>
       <c r="B37">
         <v>87121</v>
@@ -17682,7 +17682,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>9.219094993341276</v>
+        <v>8.573310199072223</v>
       </c>
       <c r="B38">
         <v>87121</v>
@@ -17693,7 +17693,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>8.650269753421279</v>
+        <v>7.461188188359273</v>
       </c>
       <c r="B39">
         <v>87121</v>
@@ -17704,7 +17704,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>10.427779921050774</v>
+        <v>9.565146738061978</v>
       </c>
       <c r="B40">
         <v>87121</v>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>8.56671503876669</v>
+        <v>6.866987973663129</v>
       </c>
       <c r="B41">
         <v>87121</v>
@@ -17726,7 +17726,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>8.859941778187379</v>
+        <v>8.299142479070998</v>
       </c>
       <c r="B42">
         <v>87121</v>
@@ -17737,7 +17737,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>8.542728177665541</v>
+        <v>7.6196374772978555</v>
       </c>
       <c r="B43">
         <v>87121</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>9.299834212529372</v>
+        <v>7.803317515699074</v>
       </c>
       <c r="B44">
         <v>87121</v>
@@ -17759,7 +17759,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>8.938666351181547</v>
+        <v>7.483967009484349</v>
       </c>
       <c r="B45">
         <v>87121</v>
@@ -17770,7 +17770,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>11.646275148456034</v>
+        <v>7.033675896225578</v>
       </c>
       <c r="B46">
         <v>87121</v>
@@ -17781,7 +17781,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>9.535738019427244</v>
+        <v>9.820666610203183</v>
       </c>
       <c r="B47">
         <v>87121</v>
@@ -17792,7 +17792,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>6.535192207409494</v>
+        <v>9.171611720910883</v>
       </c>
       <c r="B48">
         <v>87121</v>
@@ -17803,7 +17803,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>6.4662362950192716</v>
+        <v>9.592493668457587</v>
       </c>
       <c r="B49">
         <v>87121</v>
@@ -17814,7 +17814,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>11.016577658389254</v>
+        <v>11.006088834015902</v>
       </c>
       <c r="B50">
         <v>87121</v>
@@ -17825,7 +17825,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>10.92257203418996</v>
+        <v>8.50438928402362</v>
       </c>
       <c r="B51">
         <v>87121</v>
@@ -17836,7 +17836,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>9.751361903664138</v>
+        <v>7.141797805386776</v>
       </c>
       <c r="B52">
         <v>87121</v>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>9.973408029806402</v>
+        <v>6.832296763561029</v>
       </c>
       <c r="B53">
         <v>87121</v>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>10.07247118019879</v>
+        <v>8.593156126044743</v>
       </c>
       <c r="B54">
         <v>87121</v>
@@ -17869,7 +17869,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>9.915921891511907</v>
+        <v>9.36928442095963</v>
       </c>
       <c r="B55">
         <v>87121</v>
@@ -17880,7 +17880,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>6.103536593503968</v>
+        <v>10.927604288391258</v>
       </c>
       <c r="B56">
         <v>87121</v>
@@ -17891,7 +17891,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>7.971182568244158</v>
+        <v>9.245750882421762</v>
       </c>
       <c r="B57">
         <v>87121</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>9.770462692069167</v>
+        <v>10.269389410826639</v>
       </c>
       <c r="B58">
         <v>87121</v>
@@ -17913,7 +17913,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>6.275230179965742</v>
+        <v>11.32519536180734</v>
       </c>
       <c r="B59">
         <v>87121</v>
@@ -17924,7 +17924,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>6.1150768297041544</v>
+        <v>8.374256439043071</v>
       </c>
       <c r="B60">
         <v>87121</v>
@@ -17935,7 +17935,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>10.96810794104347</v>
+        <v>7.596140011301035</v>
       </c>
       <c r="B61">
         <v>87121</v>
@@ -17946,7 +17946,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>6.873621908359169</v>
+        <v>9.058318003117966</v>
       </c>
       <c r="B62">
         <v>87121</v>
@@ -17957,7 +17957,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>6.669766169436652</v>
+        <v>9.194016666131933</v>
       </c>
       <c r="B63">
         <v>87121</v>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>7.870919521608691</v>
+        <v>10.251256846878967</v>
       </c>
       <c r="B64">
         <v>87121</v>
@@ -17979,7 +17979,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>7.048914144118818</v>
+        <v>11.058310053583593</v>
       </c>
       <c r="B65">
         <v>87121</v>
@@ -17990,7 +17990,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>9.549580850893717</v>
+        <v>8.298457615562945</v>
       </c>
       <c r="B66">
         <v>87121</v>
@@ -18001,7 +18001,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>9.400330016376362</v>
+        <v>8.3422262599103</v>
       </c>
       <c r="B67">
         <v>87121</v>
@@ -18012,7 +18012,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>8.534175199384544</v>
+        <v>8.86206825305445</v>
       </c>
       <c r="B68">
         <v>87121</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>10.182216375533725</v>
+        <v>7.195201658284335</v>
       </c>
       <c r="B69">
         <v>87121</v>
@@ -18034,7 +18034,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>9.898255587547022</v>
+        <v>8.781611419809515</v>
       </c>
       <c r="B70">
         <v>87121</v>
@@ -18045,7 +18045,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>10.10504154388141</v>
+        <v>8.557236801566996</v>
       </c>
       <c r="B71">
         <v>87121</v>
@@ -18056,7 +18056,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>8.067051758776238</v>
+        <v>9.304190587288199</v>
       </c>
       <c r="B72">
         <v>87121</v>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>9.026938440373572</v>
+        <v>6.453179958988894</v>
       </c>
       <c r="B73">
         <v>87121</v>
@@ -18078,7 +18078,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>7.828525422585573</v>
+        <v>10.09497079600564</v>
       </c>
       <c r="B74">
         <v>87121</v>
@@ -18089,7 +18089,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>10.965164277031121</v>
+        <v>8.242817829873506</v>
       </c>
       <c r="B75">
         <v>87121</v>
@@ -18100,7 +18100,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>7.350854309444831</v>
+        <v>11.314569003898823</v>
       </c>
       <c r="B76">
         <v>87121</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>7.433936442238055</v>
+        <v>10.991521371542866</v>
       </c>
       <c r="B77">
         <v>87121</v>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>7.822652063229254</v>
+        <v>10.90532938013931</v>
       </c>
       <c r="B78">
         <v>87121</v>
@@ -18133,7 +18133,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>12.118937943520265</v>
+        <v>9.857801388642981</v>
       </c>
       <c r="B79">
         <v>87121</v>
@@ -18144,7 +18144,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>6.761440490752811</v>
+        <v>9.214890875934051</v>
       </c>
       <c r="B80">
         <v>87121</v>
@@ -18155,7 +18155,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>9.884587868667206</v>
+        <v>8.286451565927477</v>
       </c>
       <c r="B81">
         <v>87121</v>
@@ -18166,7 +18166,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>9.900143671257375</v>
+        <v>10.211120495802016</v>
       </c>
       <c r="B82">
         <v>87121</v>
@@ -18177,7 +18177,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>7.975621656388768</v>
+        <v>7.233886419777207</v>
       </c>
       <c r="B83">
         <v>87121</v>
@@ -18188,7 +18188,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>8.608092176498618</v>
+        <v>7.679900802058775</v>
       </c>
       <c r="B84">
         <v>87121</v>
@@ -18199,7 +18199,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>12.450648965679354</v>
+        <v>11.440729701921615</v>
       </c>
       <c r="B85">
         <v>87121</v>
@@ -18210,7 +18210,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>8.92069145476911</v>
+        <v>7.251380741898577</v>
       </c>
       <c r="B86">
         <v>87121</v>
@@ -18221,7 +18221,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>8.250776044316268</v>
+        <v>9.768045234965362</v>
       </c>
       <c r="B87">
         <v>87121</v>
@@ -18232,7 +18232,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>8.245632498973558</v>
+        <v>9.176083112617714</v>
       </c>
       <c r="B88">
         <v>87121</v>
@@ -18243,7 +18243,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>7.37637985824753</v>
+        <v>6.150940601043093</v>
       </c>
       <c r="B89">
         <v>87121</v>
@@ -18254,7 +18254,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>6.776751390274439</v>
+        <v>6.968980247424206</v>
       </c>
       <c r="B90">
         <v>87121</v>
@@ -18265,7 +18265,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>9.299743596283855</v>
+        <v>8.559705522884961</v>
       </c>
       <c r="B91">
         <v>87121</v>
@@ -18276,7 +18276,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>10.420534817290676</v>
+        <v>6.178320802751223</v>
       </c>
       <c r="B92">
         <v>87121</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>9.123034398313226</v>
+        <v>7.7826851387013445</v>
       </c>
       <c r="B93">
         <v>87121</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>7.211647711048752</v>
+        <v>11.06933547658587</v>
       </c>
       <c r="B94">
         <v>87121</v>
@@ -18309,7 +18309,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>9.342971830820886</v>
+        <v>9.069302887607908</v>
       </c>
       <c r="B95">
         <v>87121</v>
@@ -18320,7 +18320,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>7.431298489936276</v>
+        <v>8.966853224404055</v>
       </c>
       <c r="B96">
         <v>87121</v>
@@ -18331,7 +18331,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>7.517281459183456</v>
+        <v>7.366467807583437</v>
       </c>
       <c r="B97">
         <v>87121</v>
@@ -18342,7 +18342,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>8.617664475103473</v>
+        <v>8.807990956481131</v>
       </c>
       <c r="B98">
         <v>87121</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>11.410691845569017</v>
+        <v>9.610320683759612</v>
       </c>
       <c r="B99">
         <v>87121</v>
@@ -18364,7 +18364,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>6.815996090601272</v>
+        <v>9.011767919058274</v>
       </c>
       <c r="B100">
         <v>87121</v>
@@ -18375,7 +18375,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>10.996553974733736</v>
+        <v>8.485142104454129</v>
       </c>
       <c r="B101">
         <v>87121</v>
@@ -18410,7 +18410,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2646.409785385294</v>
+        <v>4626.841756323516</v>
       </c>
       <c r="B2">
         <v>69788</v>
@@ -18421,7 +18421,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>5385.177577298376</v>
+        <v>4469.863791120214</v>
       </c>
       <c r="B3">
         <v>69788</v>
@@ -18432,7 +18432,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>5981.931776249403</v>
+        <v>2341.042958501402</v>
       </c>
       <c r="B4">
         <v>69788</v>
@@ -18443,7 +18443,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>9508.287794925105</v>
+        <v>2910.729076673261</v>
       </c>
       <c r="B5">
         <v>69788</v>
@@ -18454,7 +18454,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2233.884899872515</v>
+        <v>5076.167864805924</v>
       </c>
       <c r="B6">
         <v>69788</v>
@@ -18465,7 +18465,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5934.4714649782145</v>
+        <v>5896.888765216124</v>
       </c>
       <c r="B7">
         <v>69788</v>
@@ -18476,7 +18476,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>3851.4554469528766</v>
+        <v>4749.32949022326</v>
       </c>
       <c r="B8">
         <v>69788</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>5783.42585547429</v>
+        <v>2653.200967149291</v>
       </c>
       <c r="B9">
         <v>69788</v>
@@ -18498,7 +18498,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1043.2504370194733</v>
+        <v>7441.062428468375</v>
       </c>
       <c r="B10">
         <v>69788</v>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>7591.992228353513</v>
+        <v>4424.9567473411935</v>
       </c>
       <c r="B11">
         <v>69788</v>
@@ -18520,7 +18520,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4147.404303499814</v>
+        <v>6044.904683877036</v>
       </c>
       <c r="B12">
         <v>69788</v>
@@ -18531,7 +18531,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4541.08504260019</v>
+        <v>3096.4519449297927</v>
       </c>
       <c r="B13">
         <v>69788</v>
@@ -18542,7 +18542,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>6426.5225720398375</v>
+        <v>1696.9361424076728</v>
       </c>
       <c r="B14">
         <v>69788</v>
@@ -18553,7 +18553,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>3779.8548707951268</v>
+        <v>4510.556827748632</v>
       </c>
       <c r="B15">
         <v>69788</v>
@@ -18564,7 +18564,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2319.425597993482</v>
+        <v>4890.37509087954</v>
       </c>
       <c r="B16">
         <v>69788</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>7051.988062382488</v>
+        <v>3704.755756443578</v>
       </c>
       <c r="B17">
         <v>69788</v>
@@ -18586,7 +18586,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5126.49469542693</v>
+        <v>10913.442789165725</v>
       </c>
       <c r="B18">
         <v>69788</v>
@@ -18597,7 +18597,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>5665.640345642089</v>
+        <v>6391.833955872973</v>
       </c>
       <c r="B19">
         <v>69788</v>
@@ -18608,7 +18608,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2881.7071782312364</v>
+        <v>4498.852772478431</v>
       </c>
       <c r="B20">
         <v>69788</v>
@@ -18619,7 +18619,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>5104.407737098807</v>
+        <v>5902.0154217301315</v>
       </c>
       <c r="B21">
         <v>69788</v>
@@ -18630,7 +18630,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>5511.39734336411</v>
+        <v>3752.8714728416717</v>
       </c>
       <c r="B22">
         <v>69788</v>
@@ -18641,7 +18641,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>2161.700471469408</v>
+        <v>4453.060427060026</v>
       </c>
       <c r="B23">
         <v>69788</v>
@@ -18652,7 +18652,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>5173.133449301749</v>
+        <v>3757.0416436174114</v>
       </c>
       <c r="B24">
         <v>69788</v>
@@ -18663,7 +18663,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>5672.441314521974</v>
+        <v>5176.178113526147</v>
       </c>
       <c r="B25">
         <v>69788</v>
@@ -18674,7 +18674,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3668.005272186885</v>
+        <v>4516.167193001837</v>
       </c>
       <c r="B26">
         <v>69788</v>
@@ -18685,7 +18685,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>2903.5715920946172</v>
+        <v>3179.3347398869837</v>
       </c>
       <c r="B27">
         <v>69788</v>
@@ -18696,7 +18696,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>8014.7861326775055</v>
+        <v>4701.778871955281</v>
       </c>
       <c r="B28">
         <v>69788</v>
@@ -18707,7 +18707,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2730.1170663300813</v>
+        <v>3597.194299479348</v>
       </c>
       <c r="B29">
         <v>69788</v>
@@ -18718,7 +18718,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>5418.674466640951</v>
+        <v>1867.566862294074</v>
       </c>
       <c r="B30">
         <v>69788</v>
@@ -18729,7 +18729,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>6968.984325220845</v>
+        <v>1994.1703007249248</v>
       </c>
       <c r="B31">
         <v>69788</v>
@@ -18740,7 +18740,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>6395.445759411285</v>
+        <v>3407.8562956598425</v>
       </c>
       <c r="B32">
         <v>69788</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>5217.296580668463</v>
+        <v>3048.2914753426758</v>
       </c>
       <c r="B33">
         <v>69788</v>
@@ -18762,7 +18762,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>3799.581914867478</v>
+        <v>4496.610535046723</v>
       </c>
       <c r="B34">
         <v>69788</v>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5238.834248989684</v>
+        <v>4123.326594265642</v>
       </c>
       <c r="B35">
         <v>69788</v>
@@ -18784,7 +18784,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>8635.57130674692</v>
+        <v>4426.302953478214</v>
       </c>
       <c r="B36">
         <v>69788</v>
@@ -18795,7 +18795,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>6691.383501810226</v>
+        <v>2312.872347463224</v>
       </c>
       <c r="B37">
         <v>69788</v>
@@ -18806,7 +18806,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>3985.9642885353073</v>
+        <v>3452.0600446166522</v>
       </c>
       <c r="B38">
         <v>69788</v>
@@ -18817,7 +18817,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>7737.4598699713515</v>
+        <v>4027.9637768022</v>
       </c>
       <c r="B39">
         <v>69788</v>
@@ -18828,7 +18828,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4793.6326322483255</v>
+        <v>1731.1042948772952</v>
       </c>
       <c r="B40">
         <v>69788</v>
@@ -18839,7 +18839,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>8036.692998395448</v>
+        <v>2239.535838533705</v>
       </c>
       <c r="B41">
         <v>69788</v>
@@ -18850,7 +18850,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>8763.383503565743</v>
+        <v>4246.7021572043195</v>
       </c>
       <c r="B42">
         <v>69788</v>
@@ -18861,7 +18861,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2638.3270061602266</v>
+        <v>3784.633030645585</v>
       </c>
       <c r="B43">
         <v>69788</v>
@@ -18872,7 +18872,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>4407.224019835958</v>
+        <v>3460.9337170390336</v>
       </c>
       <c r="B44">
         <v>69788</v>
@@ -18883,7 +18883,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>6127.91824710784</v>
+        <v>7123.25913473615</v>
       </c>
       <c r="B45">
         <v>69788</v>
@@ -18894,7 +18894,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>2874.7692520005667</v>
+        <v>5493.155674487803</v>
       </c>
       <c r="B46">
         <v>69788</v>
@@ -18905,7 +18905,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>3045.6276167728015</v>
+        <v>3382.1737935511383</v>
       </c>
       <c r="B47">
         <v>69788</v>
@@ -18916,7 +18916,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>3539.731810741896</v>
+        <v>4139.224159842124</v>
       </c>
       <c r="B48">
         <v>69788</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>3068.5935419836946</v>
+        <v>6916.820022947551</v>
       </c>
       <c r="B49">
         <v>69788</v>
@@ -18938,7 +18938,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>6404.696533256469</v>
+        <v>1094.8869684596839</v>
       </c>
       <c r="B50">
         <v>69788</v>
@@ -18949,7 +18949,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>7077.181287072775</v>
+        <v>9704.495254446943</v>
       </c>
       <c r="B51">
         <v>69788</v>
@@ -18960,7 +18960,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>6127.188112343676</v>
+        <v>7644.099909027802</v>
       </c>
       <c r="B52">
         <v>69788</v>
@@ -18971,7 +18971,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>5933.6378975519765</v>
+        <v>4794.005134554614</v>
       </c>
       <c r="B53">
         <v>69788</v>
@@ -18982,7 +18982,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>6139.66655698389</v>
+        <v>9458.823672088125</v>
       </c>
       <c r="B54">
         <v>69788</v>
@@ -18993,7 +18993,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>8828.198773617494</v>
+        <v>5975.6893108426175</v>
       </c>
       <c r="B55">
         <v>69788</v>
@@ -19004,7 +19004,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4248.176459292776</v>
+        <v>3587.135105331139</v>
       </c>
       <c r="B56">
         <v>69788</v>
@@ -19015,7 +19015,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1265.4241907327498</v>
+        <v>2640.416666167562</v>
       </c>
       <c r="B57">
         <v>69788</v>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>3934.2816783245958</v>
+        <v>8521.085572539476</v>
       </c>
       <c r="B58">
         <v>69788</v>
@@ -19037,7 +19037,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>3265.587068844797</v>
+        <v>3085.5873803316204</v>
       </c>
       <c r="B59">
         <v>69788</v>
@@ -19048,7 +19048,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>2440.484308564002</v>
+        <v>3669.3555207059603</v>
       </c>
       <c r="B60">
         <v>69788</v>
@@ -19059,7 +19059,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2017.5785251930542</v>
+        <v>3092.529147315132</v>
       </c>
       <c r="B61">
         <v>69788</v>
@@ -19070,7 +19070,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>4280.150323699142</v>
+        <v>3072.333895498546</v>
       </c>
       <c r="B62">
         <v>69788</v>
@@ -19081,7 +19081,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>5629.271237311736</v>
+        <v>6518.422373923285</v>
       </c>
       <c r="B63">
         <v>69788</v>
@@ -19092,7 +19092,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>4745.134553718278</v>
+        <v>4016.053745896475</v>
       </c>
       <c r="B64">
         <v>69788</v>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>7070.775870833797</v>
+        <v>9693.536231972585</v>
       </c>
       <c r="B65">
         <v>69788</v>
@@ -19114,7 +19114,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>3447.1352595568587</v>
+        <v>9331.67523359113</v>
       </c>
       <c r="B66">
         <v>69788</v>
@@ -19125,7 +19125,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>3710.5084395319523</v>
+        <v>3832.5949529297613</v>
       </c>
       <c r="B67">
         <v>69788</v>
@@ -19136,7 +19136,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>5543.2829665816225</v>
+        <v>9011.41460362454</v>
       </c>
       <c r="B68">
         <v>69788</v>
@@ -19147,7 +19147,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>2205.858626014627</v>
+        <v>3501.2910369870865</v>
       </c>
       <c r="B69">
         <v>69788</v>
@@ -19158,7 +19158,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>5567.075521237897</v>
+        <v>8961.092621103984</v>
       </c>
       <c r="B70">
         <v>69788</v>
@@ -19169,7 +19169,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>6834.3426646889975</v>
+        <v>3597.8390340852743</v>
       </c>
       <c r="B71">
         <v>69788</v>
@@ -19180,7 +19180,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>3786.1281492106145</v>
+        <v>3952.8600702581725</v>
       </c>
       <c r="B72">
         <v>69788</v>
@@ -19191,7 +19191,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>2918.039701463218</v>
+        <v>3842.2733128055515</v>
       </c>
       <c r="B73">
         <v>69788</v>
@@ -19202,7 +19202,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>6427.7663782204045</v>
+        <v>4415.743659784742</v>
       </c>
       <c r="B74">
         <v>69788</v>
@@ -19213,7 +19213,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>5447.021457360266</v>
+        <v>7023.886057532155</v>
       </c>
       <c r="B75">
         <v>69788</v>
@@ -19224,7 +19224,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>2311.7208514914582</v>
+        <v>6348.412979957465</v>
       </c>
       <c r="B76">
         <v>69788</v>
@@ -19235,7 +19235,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>3709.445160117968</v>
+        <v>5359.462622050468</v>
       </c>
       <c r="B77">
         <v>69788</v>
@@ -19246,7 +19246,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>5833.7795526388845</v>
+        <v>5068.596138942768</v>
       </c>
       <c r="B78">
         <v>69788</v>
@@ -19257,7 +19257,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>4560.624703968833</v>
+        <v>3554.2403780695336</v>
       </c>
       <c r="B79">
         <v>69788</v>
@@ -19268,7 +19268,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>6915.304694264642</v>
+        <v>7319.450601662236</v>
       </c>
       <c r="B80">
         <v>69788</v>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>3580.1510704373795</v>
+        <v>2339.5641771785904</v>
       </c>
       <c r="B81">
         <v>69788</v>
@@ -19290,7 +19290,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>7827.668889011032</v>
+        <v>2898.6268503438046</v>
       </c>
       <c r="B82">
         <v>69788</v>
@@ -19301,7 +19301,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>5422.089308084297</v>
+        <v>7414.138801756825</v>
       </c>
       <c r="B83">
         <v>69788</v>
@@ -19312,7 +19312,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>8892.054800225857</v>
+        <v>5260.632505967151</v>
       </c>
       <c r="B84">
         <v>69788</v>
@@ -19323,7 +19323,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>5351.919520422145</v>
+        <v>2989.484833603645</v>
       </c>
       <c r="B85">
         <v>69788</v>
@@ -19334,7 +19334,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>7169.414986667071</v>
+        <v>3111.9887111054877</v>
       </c>
       <c r="B86">
         <v>69788</v>
@@ -19345,7 +19345,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>4347.840999981719</v>
+        <v>4050.399421333121</v>
       </c>
       <c r="B87">
         <v>69788</v>
@@ -19356,7 +19356,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>5239.887673132891</v>
+        <v>5439.645942173527</v>
       </c>
       <c r="B88">
         <v>69788</v>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>2778.775193939438</v>
+        <v>10224.350747522096</v>
       </c>
       <c r="B89">
         <v>69788</v>
@@ -19378,7 +19378,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>2787.134270191451</v>
+        <v>6282.354256040249</v>
       </c>
       <c r="B90">
         <v>69788</v>
@@ -19389,7 +19389,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>2734.682609812231</v>
+        <v>3379.675695140698</v>
       </c>
       <c r="B91">
         <v>69788</v>
@@ -19400,7 +19400,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>8859.03450578469</v>
+        <v>4498.058879843491</v>
       </c>
       <c r="B92">
         <v>69788</v>
@@ -19411,7 +19411,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>5163.252551510055</v>
+        <v>2488.4379764028463</v>
       </c>
       <c r="B93">
         <v>69788</v>
@@ -19422,7 +19422,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>5559.226385792821</v>
+        <v>3369.560643587438</v>
       </c>
       <c r="B94">
         <v>69788</v>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>4347.65869137764</v>
+        <v>5954.833149633663</v>
       </c>
       <c r="B95">
         <v>69788</v>
@@ -19444,7 +19444,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>7833.96891563797</v>
+        <v>1635.6401519916237</v>
       </c>
       <c r="B96">
         <v>69788</v>
@@ -19455,7 +19455,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>5757.218108626933</v>
+        <v>2321.0879425356743</v>
       </c>
       <c r="B97">
         <v>69788</v>
@@ -19466,7 +19466,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>3055.008439094409</v>
+        <v>3926.3855638849273</v>
       </c>
       <c r="B98">
         <v>69788</v>
@@ -19477,7 +19477,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>7156.017280912381</v>
+        <v>4076.4133110227485</v>
       </c>
       <c r="B99">
         <v>69788</v>
@@ -19488,7 +19488,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3758.808915429631</v>
+        <v>3386.297712091053</v>
       </c>
       <c r="B100">
         <v>69788</v>
@@ -19499,7 +19499,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>5369.546781371851</v>
+        <v>2281.8279766551345</v>
       </c>
       <c r="B101">
         <v>69788</v>
@@ -19534,7 +19534,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>15259.314788371981</v>
+        <v>15017.27629754876</v>
       </c>
       <c r="B2">
         <v>201736</v>
@@ -19545,7 +19545,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>14907.629279037286</v>
+        <v>15171.815883055595</v>
       </c>
       <c r="B3">
         <v>201736</v>
@@ -19556,7 +19556,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>14944.425991913036</v>
+        <v>14456.365192438274</v>
       </c>
       <c r="B4">
         <v>201736</v>
@@ -19567,7 +19567,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>15450.136003898526</v>
+        <v>15355.687746828793</v>
       </c>
       <c r="B5">
         <v>201736</v>
@@ -19578,7 +19578,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>15967.293587407443</v>
+        <v>14693.400791867707</v>
       </c>
       <c r="B6">
         <v>201736</v>
@@ -19589,7 +19589,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>15517.547412539781</v>
+        <v>15396.455413218424</v>
       </c>
       <c r="B7">
         <v>201736</v>
@@ -19600,7 +19600,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>14639.441802307841</v>
+        <v>15590.634002825878</v>
       </c>
       <c r="B8">
         <v>201736</v>
@@ -19611,7 +19611,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>15568.605247619163</v>
+        <v>14562.867261688578</v>
       </c>
       <c r="B9">
         <v>201736</v>
@@ -19622,7 +19622,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>15411.41244545497</v>
+        <v>14798.469021310279</v>
       </c>
       <c r="B10">
         <v>201736</v>
@@ -19633,7 +19633,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>14998.705271720226</v>
+        <v>15474.524293585091</v>
       </c>
       <c r="B11">
         <v>201736</v>
@@ -19644,7 +19644,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>15228.661250213767</v>
+        <v>14871.294582556064</v>
       </c>
       <c r="B12">
         <v>201736</v>
@@ -19655,7 +19655,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>14668.033282100587</v>
+        <v>15560.889935393003</v>
       </c>
       <c r="B13">
         <v>201736</v>
@@ -19666,7 +19666,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>14678.153732214325</v>
+        <v>15766.969087620419</v>
       </c>
       <c r="B14">
         <v>201736</v>
@@ -19677,7 +19677,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>15280.109250938485</v>
+        <v>15355.578263059617</v>
       </c>
       <c r="B15">
         <v>201736</v>
@@ -19688,7 +19688,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>14811.12709492614</v>
+        <v>15139.69150479019</v>
       </c>
       <c r="B16">
         <v>201736</v>
@@ -19699,7 +19699,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>15144.688103682885</v>
+        <v>15097.992826319261</v>
       </c>
       <c r="B17">
         <v>201736</v>
@@ -19710,7 +19710,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>14302.556999377062</v>
+        <v>15072.546223350671</v>
       </c>
       <c r="B18">
         <v>201736</v>
@@ -19721,7 +19721,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>15166.296560102914</v>
+        <v>15465.365899542447</v>
       </c>
       <c r="B19">
         <v>201736</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>15631.511574642835</v>
+        <v>15415.312999111506</v>
       </c>
       <c r="B20">
         <v>201736</v>
@@ -19743,7 +19743,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>15051.884907988402</v>
+        <v>15198.947717161413</v>
       </c>
       <c r="B21">
         <v>201736</v>
@@ -19754,7 +19754,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>14840.052183829077</v>
+        <v>14532.259444914778</v>
       </c>
       <c r="B22">
         <v>201736</v>
@@ -19765,7 +19765,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>15505.06936258932</v>
+        <v>15336.023056319904</v>
       </c>
       <c r="B23">
         <v>201736</v>
@@ -19776,7 +19776,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>15513.263149229922</v>
+        <v>14988.956737618417</v>
       </c>
       <c r="B24">
         <v>201736</v>
@@ -19787,7 +19787,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>14742.0588443442</v>
+        <v>14852.180351222085</v>
       </c>
       <c r="B25">
         <v>201736</v>
@@ -19798,7 +19798,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>14980.571659702873</v>
+        <v>14944.370510930978</v>
       </c>
       <c r="B26">
         <v>201736</v>
@@ -19809,7 +19809,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>15073.624662078542</v>
+        <v>14832.439201315705</v>
       </c>
       <c r="B27">
         <v>201736</v>
@@ -19820,7 +19820,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>14712.940435834056</v>
+        <v>15136.325064699618</v>
       </c>
       <c r="B28">
         <v>201736</v>
@@ -19831,7 +19831,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>15545.67309547652</v>
+        <v>14804.764323233114</v>
       </c>
       <c r="B29">
         <v>201736</v>
@@ -19842,7 +19842,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>15379.804627282447</v>
+        <v>15258.429489855707</v>
       </c>
       <c r="B30">
         <v>201736</v>
@@ -19853,7 +19853,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>15318.250842342615</v>
+        <v>15112.560056031973</v>
       </c>
       <c r="B31">
         <v>201736</v>
@@ -19864,7 +19864,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>15218.548107491904</v>
+        <v>15137.254447981402</v>
       </c>
       <c r="B32">
         <v>201736</v>
@@ -19875,7 +19875,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>15711.73741174104</v>
+        <v>14312.731602065787</v>
       </c>
       <c r="B33">
         <v>201736</v>
@@ -19886,7 +19886,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>15386.858978112949</v>
+        <v>15811.951961723702</v>
       </c>
       <c r="B34">
         <v>201736</v>
@@ -19897,7 +19897,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>14981.948058241811</v>
+        <v>15129.579156261692</v>
       </c>
       <c r="B35">
         <v>201736</v>
@@ -19908,7 +19908,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>15430.085201565109</v>
+        <v>15439.88873373924</v>
       </c>
       <c r="B36">
         <v>201736</v>
@@ -19919,7 +19919,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>14792.733621495412</v>
+        <v>14831.131119726384</v>
       </c>
       <c r="B37">
         <v>201736</v>
@@ -19930,7 +19930,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>15138.158897158595</v>
+        <v>15228.863685179364</v>
       </c>
       <c r="B38">
         <v>201736</v>
@@ -19941,7 +19941,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>15286.264745383487</v>
+        <v>15417.06511176344</v>
       </c>
       <c r="B39">
         <v>201736</v>
@@ -19952,7 +19952,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>15068.325449559568</v>
+        <v>14848.919520780802</v>
       </c>
       <c r="B40">
         <v>201736</v>
@@ -19963,7 +19963,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>14885.028369427699</v>
+        <v>15222.317170881852</v>
       </c>
       <c r="B41">
         <v>201736</v>
@@ -19974,7 +19974,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>15013.175767102775</v>
+        <v>14750.757699814043</v>
       </c>
       <c r="B42">
         <v>201736</v>
@@ -19985,7 +19985,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>15015.247788605113</v>
+        <v>15082.56179169552</v>
       </c>
       <c r="B43">
         <v>201736</v>
@@ -19996,7 +19996,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>15169.15280209982</v>
+        <v>15217.747843627487</v>
       </c>
       <c r="B44">
         <v>201736</v>
@@ -20007,7 +20007,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>14920.186530462574</v>
+        <v>14604.186643513429</v>
       </c>
       <c r="B45">
         <v>201736</v>
@@ -20018,7 +20018,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>15074.863811503765</v>
+        <v>14624.032175810054</v>
       </c>
       <c r="B46">
         <v>201736</v>
@@ -20029,7 +20029,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>15341.449895714688</v>
+        <v>15353.745929410765</v>
       </c>
       <c r="B47">
         <v>201736</v>
@@ -20040,7 +20040,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>15258.628119988483</v>
+        <v>15188.178186719637</v>
       </c>
       <c r="B48">
         <v>201736</v>
@@ -20051,7 +20051,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>15070.26025538283</v>
+        <v>15303.49561620366</v>
       </c>
       <c r="B49">
         <v>201736</v>
@@ -20062,7 +20062,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>14942.749175920846</v>
+        <v>15488.397571487998</v>
       </c>
       <c r="B50">
         <v>201736</v>
@@ -20073,7 +20073,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>15229.558968212328</v>
+        <v>14903.90122139752</v>
       </c>
       <c r="B51">
         <v>201736</v>
@@ -20084,7 +20084,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>15332.667664614526</v>
+        <v>15279.819919906056</v>
       </c>
       <c r="B52">
         <v>201736</v>
@@ -20095,7 +20095,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>14930.2801585734</v>
+        <v>15608.279440358778</v>
       </c>
       <c r="B53">
         <v>201736</v>
@@ -20106,7 +20106,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>14808.524733971146</v>
+        <v>15022.731515112908</v>
       </c>
       <c r="B54">
         <v>201736</v>
@@ -20117,7 +20117,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>14933.173041500046</v>
+        <v>14836.40791224623</v>
       </c>
       <c r="B55">
         <v>201736</v>
@@ -20128,7 +20128,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>15540.634455630689</v>
+        <v>15225.547369747608</v>
       </c>
       <c r="B56">
         <v>201736</v>
@@ -20139,7 +20139,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>15421.885028623623</v>
+        <v>14903.869765370646</v>
       </c>
       <c r="B57">
         <v>201736</v>
@@ -20150,7 +20150,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>15367.320523739125</v>
+        <v>14362.785148180945</v>
       </c>
       <c r="B58">
         <v>201736</v>
@@ -20161,7 +20161,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>15374.850882027136</v>
+        <v>14689.464147110322</v>
       </c>
       <c r="B59">
         <v>201736</v>
@@ -20172,7 +20172,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>15072.550559223193</v>
+        <v>14947.617750122945</v>
       </c>
       <c r="B60">
         <v>201736</v>
@@ -20183,7 +20183,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>15179.603739952732</v>
+        <v>14844.315042275462</v>
       </c>
       <c r="B61">
         <v>201736</v>
@@ -20194,7 +20194,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>15012.247897619394</v>
+        <v>15484.773747919886</v>
       </c>
       <c r="B62">
         <v>201736</v>
@@ -20205,7 +20205,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>15332.733316160855</v>
+        <v>15246.748666254192</v>
       </c>
       <c r="B63">
         <v>201736</v>
@@ -20216,7 +20216,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>14841.783690791362</v>
+        <v>15096.369992388109</v>
       </c>
       <c r="B64">
         <v>201736</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>14005.283910908585</v>
+        <v>15113.649838072415</v>
       </c>
       <c r="B65">
         <v>201736</v>
@@ -20238,7 +20238,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>15375.050791012243</v>
+        <v>14874.59506385125</v>
       </c>
       <c r="B66">
         <v>201736</v>
@@ -20249,7 +20249,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>15244.38448831312</v>
+        <v>15251.017058333788</v>
       </c>
       <c r="B67">
         <v>201736</v>
@@ -20260,7 +20260,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>15203.967225475722</v>
+        <v>15471.54426483405</v>
       </c>
       <c r="B68">
         <v>201736</v>
@@ -20271,7 +20271,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>15108.151738239525</v>
+        <v>15550.974146919252</v>
       </c>
       <c r="B69">
         <v>201736</v>
@@ -20282,7 +20282,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>15272.791400642298</v>
+        <v>14957.665773242523</v>
       </c>
       <c r="B70">
         <v>201736</v>
@@ -20293,7 +20293,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>14786.481614190285</v>
+        <v>14773.73543144397</v>
       </c>
       <c r="B71">
         <v>201736</v>
@@ -20304,7 +20304,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>15148.671792367299</v>
+        <v>14784.319097191692</v>
       </c>
       <c r="B72">
         <v>201736</v>
@@ -20315,7 +20315,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>15547.51992190329</v>
+        <v>14948.66836038656</v>
       </c>
       <c r="B73">
         <v>201736</v>
@@ -20326,7 +20326,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>14296.1306443735</v>
+        <v>15216.864584688698</v>
       </c>
       <c r="B74">
         <v>201736</v>
@@ -20337,7 +20337,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>14916.850108684503</v>
+        <v>13925.853624434762</v>
       </c>
       <c r="B75">
         <v>201736</v>
@@ -20348,7 +20348,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>14657.792214449333</v>
+        <v>15439.668555775828</v>
       </c>
       <c r="B76">
         <v>201736</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>15133.823542807899</v>
+        <v>15532.924212029204</v>
       </c>
       <c r="B77">
         <v>201736</v>
@@ -20370,7 +20370,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>14583.15471225751</v>
+        <v>15260.478335078866</v>
       </c>
       <c r="B78">
         <v>201736</v>
@@ -20381,7 +20381,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>15453.71030941068</v>
+        <v>15562.812262267422</v>
       </c>
       <c r="B79">
         <v>201736</v>
@@ -20392,7 +20392,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>14955.354372434915</v>
+        <v>15201.187932817265</v>
       </c>
       <c r="B80">
         <v>201736</v>
@@ -20403,7 +20403,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>15001.433653075122</v>
+        <v>14972.12725536608</v>
       </c>
       <c r="B81">
         <v>201736</v>
@@ -20414,7 +20414,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>15195.159453307206</v>
+        <v>15451.2356479895</v>
       </c>
       <c r="B82">
         <v>201736</v>
@@ -20425,7 +20425,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>15130.43742818903</v>
+        <v>14965.116954205616</v>
       </c>
       <c r="B83">
         <v>201736</v>
@@ -20436,7 +20436,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>15300.123909997139</v>
+        <v>15232.608121461633</v>
       </c>
       <c r="B84">
         <v>201736</v>
@@ -20447,7 +20447,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>15346.342774281451</v>
+        <v>15738.59809049185</v>
       </c>
       <c r="B85">
         <v>201736</v>
@@ -20458,7 +20458,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>15160.106243765722</v>
+        <v>15228.354114124308</v>
       </c>
       <c r="B86">
         <v>201736</v>
@@ -20469,7 +20469,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>15466.463207435772</v>
+        <v>15210.584224092649</v>
       </c>
       <c r="B87">
         <v>201736</v>
@@ -20480,7 +20480,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>15057.166095667548</v>
+        <v>15292.444759057853</v>
       </c>
       <c r="B88">
         <v>201736</v>
@@ -20491,7 +20491,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>15174.845424905989</v>
+        <v>15335.738109648544</v>
       </c>
       <c r="B89">
         <v>201736</v>
@@ -20502,7 +20502,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>15366.225966196558</v>
+        <v>15308.402650730242</v>
       </c>
       <c r="B90">
         <v>201736</v>
@@ -20513,7 +20513,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>15408.97834757114</v>
+        <v>15740.920452387509</v>
       </c>
       <c r="B91">
         <v>201736</v>
@@ -20524,7 +20524,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>15164.244553711513</v>
+        <v>15281.247579633276</v>
       </c>
       <c r="B92">
         <v>201736</v>
@@ -20535,7 +20535,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>15255.795102087435</v>
+        <v>14501.179831075442</v>
       </c>
       <c r="B93">
         <v>201736</v>
@@ -20546,7 +20546,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>15410.475759970866</v>
+        <v>15309.840083571493</v>
       </c>
       <c r="B94">
         <v>201736</v>
@@ -20557,7 +20557,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>15366.411589306485</v>
+        <v>14709.412904410763</v>
       </c>
       <c r="B95">
         <v>201736</v>
@@ -20568,7 +20568,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>14938.121636540116</v>
+        <v>15067.017182606403</v>
       </c>
       <c r="B96">
         <v>201736</v>
@@ -20579,7 +20579,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>15224.974066292498</v>
+        <v>15080.15953748799</v>
       </c>
       <c r="B97">
         <v>201736</v>
@@ -20590,7 +20590,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>14454.758137255581</v>
+        <v>15288.379628218041</v>
       </c>
       <c r="B98">
         <v>201736</v>
@@ -20601,7 +20601,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>15093.5124216393</v>
+        <v>15189.791700250931</v>
       </c>
       <c r="B99">
         <v>201736</v>
@@ -20612,7 +20612,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>15209.609787407393</v>
+        <v>15299.773192109998</v>
       </c>
       <c r="B100">
         <v>201736</v>
@@ -20623,7 +20623,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>15330.837192590594</v>
+        <v>15157.821081472623</v>
       </c>
       <c r="B101">
         <v>201736</v>
@@ -20658,7 +20658,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>19821.331971344538</v>
+        <v>55503.209611527156</v>
       </c>
       <c r="B2">
         <v>8000000</v>
@@ -20669,7 +20669,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>66014.3540167762</v>
+        <v>107248.62882194296</v>
       </c>
       <c r="B3">
         <v>8000000</v>
@@ -20680,7 +20680,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>29297.33904556418</v>
+        <v>16753.66672784672</v>
       </c>
       <c r="B4">
         <v>8000000</v>
@@ -20691,7 +20691,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>45181.40033007972</v>
+        <v>17039.39659982035</v>
       </c>
       <c r="B5">
         <v>8000000</v>
@@ -20702,7 +20702,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>58729.21299519576</v>
+        <v>193140.49590759166</v>
       </c>
       <c r="B6">
         <v>8000000</v>
@@ -20713,7 +20713,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>40738.68551378767</v>
+        <v>94996.91803541826</v>
       </c>
       <c r="B7">
         <v>8000000</v>
@@ -20724,7 +20724,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>121270.64765321091</v>
+        <v>36063.89284790307</v>
       </c>
       <c r="B8">
         <v>8000000</v>
@@ -20735,7 +20735,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>38983.15054509416</v>
+        <v>23281.59153715521</v>
       </c>
       <c r="B9">
         <v>8000000</v>
@@ -20746,7 +20746,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>103968.29402687773</v>
+        <v>63808.11254360387</v>
       </c>
       <c r="B10">
         <v>8000000</v>
@@ -20757,7 +20757,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>78536.78507060371</v>
+        <v>72916.44723735307</v>
       </c>
       <c r="B11">
         <v>8000000</v>
@@ -20768,7 +20768,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>32038.263901831815</v>
+        <v>92226.45532115409</v>
       </c>
       <c r="B12">
         <v>8000000</v>
@@ -20779,7 +20779,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>129434.55670757126</v>
+        <v>66687.61842106748</v>
       </c>
       <c r="B13">
         <v>8000000</v>
@@ -20790,7 +20790,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>50682.61879539327</v>
+        <v>55867.900027032476</v>
       </c>
       <c r="B14">
         <v>8000000</v>
@@ -20801,7 +20801,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>92621.77734885132</v>
+        <v>62289.70651066676</v>
       </c>
       <c r="B15">
         <v>8000000</v>
@@ -20812,7 +20812,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>145223.9708316084</v>
+        <v>27286.813644048292</v>
       </c>
       <c r="B16">
         <v>8000000</v>
@@ -20823,7 +20823,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>99866.96838476695</v>
+        <v>41581.4913190332</v>
       </c>
       <c r="B17">
         <v>8000000</v>
@@ -20834,7 +20834,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>80781.31422197958</v>
+        <v>74142.28767673182</v>
       </c>
       <c r="B18">
         <v>8000000</v>
@@ -20845,7 +20845,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>65715.97085609799</v>
+        <v>34411.75809831265</v>
       </c>
       <c r="B19">
         <v>8000000</v>
@@ -20856,7 +20856,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>26721.30203254521</v>
+        <v>49016.69643173157</v>
       </c>
       <c r="B20">
         <v>8000000</v>
@@ -20867,7 +20867,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>40878.164444908965</v>
+        <v>45757.4083400697</v>
       </c>
       <c r="B21">
         <v>8000000</v>
@@ -20878,7 +20878,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>110713.47768148035</v>
+        <v>24775.890873265453</v>
       </c>
       <c r="B22">
         <v>8000000</v>
@@ -20889,7 +20889,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>49618.21988966875</v>
+        <v>65771.06081758719</v>
       </c>
       <c r="B23">
         <v>8000000</v>
@@ -20900,7 +20900,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>103812.67620542506</v>
+        <v>93762.45540065924</v>
       </c>
       <c r="B24">
         <v>8000000</v>
@@ -20911,7 +20911,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>71264.44815395586</v>
+        <v>40763.66191680357</v>
       </c>
       <c r="B25">
         <v>8000000</v>
@@ -20922,7 +20922,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>58858.159603710286</v>
+        <v>158987.62839222886</v>
       </c>
       <c r="B26">
         <v>8000000</v>
@@ -20933,7 +20933,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>130356.68779751286</v>
+        <v>52874.50988352881</v>
       </c>
       <c r="B27">
         <v>8000000</v>
@@ -20944,7 +20944,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>50715.827110379934</v>
+        <v>39274.00770025607</v>
       </c>
       <c r="B28">
         <v>8000000</v>
@@ -20955,7 +20955,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>29963.78299316601</v>
+        <v>51322.45677342429</v>
       </c>
       <c r="B29">
         <v>8000000</v>
@@ -20966,7 +20966,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>52781.58698465442</v>
+        <v>74679.51409900747</v>
       </c>
       <c r="B30">
         <v>8000000</v>
@@ -20977,7 +20977,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>59654.77758448734</v>
+        <v>105747.33315791609</v>
       </c>
       <c r="B31">
         <v>8000000</v>
@@ -20988,7 +20988,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>38259.71035902668</v>
+        <v>70919.55325451388</v>
       </c>
       <c r="B32">
         <v>8000000</v>
@@ -20999,7 +20999,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>33909.98327006074</v>
+        <v>42131.617670696694</v>
       </c>
       <c r="B33">
         <v>8000000</v>
@@ -21010,7 +21010,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>108171.70097652264</v>
+        <v>53331.88167243078</v>
       </c>
       <c r="B34">
         <v>8000000</v>
@@ -21021,7 +21021,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>40048.94756390888</v>
+        <v>28119.21324090846</v>
       </c>
       <c r="B35">
         <v>8000000</v>
@@ -21032,7 +21032,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>51084.98272133712</v>
+        <v>21632.551848861447</v>
       </c>
       <c r="B36">
         <v>8000000</v>
@@ -21043,7 +21043,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>59212.47992442548</v>
+        <v>39471.718009241915</v>
       </c>
       <c r="B37">
         <v>8000000</v>
@@ -21054,7 +21054,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>53805.81233233726</v>
+        <v>22083.20123609528</v>
       </c>
       <c r="B38">
         <v>8000000</v>
@@ -21065,7 +21065,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>56425.237571742386</v>
+        <v>30811.492427102057</v>
       </c>
       <c r="B39">
         <v>8000000</v>
@@ -21076,7 +21076,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>37454.707656743005</v>
+        <v>39753.03290059813</v>
       </c>
       <c r="B40">
         <v>8000000</v>
@@ -21087,7 +21087,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>38867.74532355927</v>
+        <v>26505.491287030047</v>
       </c>
       <c r="B41">
         <v>8000000</v>
@@ -21098,7 +21098,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>80239.60209690453</v>
+        <v>89292.53308875766</v>
       </c>
       <c r="B42">
         <v>8000000</v>
@@ -21109,7 +21109,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>28205.103452546406</v>
+        <v>62773.0451220097</v>
       </c>
       <c r="B43">
         <v>8000000</v>
@@ -21120,7 +21120,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>61326.11143024289</v>
+        <v>32757.48408184643</v>
       </c>
       <c r="B44">
         <v>8000000</v>
@@ -21131,7 +21131,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>18296.478482303908</v>
+        <v>67650.85077297874</v>
       </c>
       <c r="B45">
         <v>8000000</v>
@@ -21142,7 +21142,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>114120.26875621825</v>
+        <v>33222.650300572626</v>
       </c>
       <c r="B46">
         <v>8000000</v>
@@ -21153,7 +21153,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>90377.90370566538</v>
+        <v>64565.205458414275</v>
       </c>
       <c r="B47">
         <v>8000000</v>
@@ -21164,7 +21164,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>81799.95379636018</v>
+        <v>40900.2614053078</v>
       </c>
       <c r="B48">
         <v>8000000</v>
@@ -21175,7 +21175,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>90208.3247567853</v>
+        <v>20640.296869843267</v>
       </c>
       <c r="B49">
         <v>8000000</v>
@@ -21186,7 +21186,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>25888.27858767788</v>
+        <v>31036.50939214602</v>
       </c>
       <c r="B50">
         <v>8000000</v>
@@ -21197,7 +21197,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>79062.02909963857</v>
+        <v>45891.48058305681</v>
       </c>
       <c r="B51">
         <v>8000000</v>
@@ -21208,7 +21208,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>33435.97243206529</v>
+        <v>21894.94096000027</v>
       </c>
       <c r="B52">
         <v>8000000</v>
@@ -21219,7 +21219,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>52123.14123078552</v>
+        <v>30278.059392651077</v>
       </c>
       <c r="B53">
         <v>8000000</v>
@@ -21230,7 +21230,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>54634.81399699184</v>
+        <v>61535.76383808395</v>
       </c>
       <c r="B54">
         <v>8000000</v>
@@ -21241,7 +21241,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>61105.56244569109</v>
+        <v>29215.303081415128</v>
       </c>
       <c r="B55">
         <v>8000000</v>
@@ -21252,7 +21252,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>45644.88501371746</v>
+        <v>24691.92769838567</v>
       </c>
       <c r="B56">
         <v>8000000</v>
@@ -21263,7 +21263,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>36698.675512668444</v>
+        <v>45626.995132569224</v>
       </c>
       <c r="B57">
         <v>8000000</v>
@@ -21274,7 +21274,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>69749.61975394236</v>
+        <v>51947.472347821575</v>
       </c>
       <c r="B58">
         <v>8000000</v>
@@ -21285,7 +21285,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>87940.44776027417</v>
+        <v>55347.69589098939</v>
       </c>
       <c r="B59">
         <v>8000000</v>
@@ -21296,7 +21296,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>63698.30020275805</v>
+        <v>126771.26171725849</v>
       </c>
       <c r="B60">
         <v>8000000</v>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>31090.599289917154</v>
+        <v>90467.62973345025</v>
       </c>
       <c r="B61">
         <v>8000000</v>
@@ -21318,7 +21318,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>96778.03868743964</v>
+        <v>34227.00665642967</v>
       </c>
       <c r="B62">
         <v>8000000</v>
@@ -21329,7 +21329,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>88710.4212080501</v>
+        <v>46905.528532395605</v>
       </c>
       <c r="B63">
         <v>8000000</v>
@@ -21340,7 +21340,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>73361.10019373987</v>
+        <v>78534.2705531402</v>
       </c>
       <c r="B64">
         <v>8000000</v>
@@ -21351,7 +21351,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>64272.905226736795</v>
+        <v>32728.47302718018</v>
       </c>
       <c r="B65">
         <v>8000000</v>
@@ -21362,7 +21362,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>84685.72139189509</v>
+        <v>65841.74370480934</v>
       </c>
       <c r="B66">
         <v>8000000</v>
@@ -21373,7 +21373,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>67517.14273119904</v>
+        <v>79206.43925712677</v>
       </c>
       <c r="B67">
         <v>8000000</v>
@@ -21384,7 +21384,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>75456.94206708204</v>
+        <v>84793.39275666606</v>
       </c>
       <c r="B68">
         <v>8000000</v>
@@ -21395,7 +21395,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>29518.933521628496</v>
+        <v>17417.091233940795</v>
       </c>
       <c r="B69">
         <v>8000000</v>
@@ -21406,7 +21406,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>41852.241293799365</v>
+        <v>28618.193710221327</v>
       </c>
       <c r="B70">
         <v>8000000</v>
@@ -21417,7 +21417,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>122774.00443329872</v>
+        <v>45104.4515311413</v>
       </c>
       <c r="B71">
         <v>8000000</v>
@@ -21428,7 +21428,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>75481.10079986858</v>
+        <v>19623.54095392686</v>
       </c>
       <c r="B72">
         <v>8000000</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>41240.02858412312</v>
+        <v>86949.02774558868</v>
       </c>
       <c r="B73">
         <v>8000000</v>
@@ -21450,7 +21450,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>29515.435937426984</v>
+        <v>81585.2994421306</v>
       </c>
       <c r="B74">
         <v>8000000</v>
@@ -21461,7 +21461,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>75054.17746887449</v>
+        <v>29433.24248892488</v>
       </c>
       <c r="B75">
         <v>8000000</v>
@@ -21472,7 +21472,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>7158.759762689471</v>
+        <v>12432.374761710875</v>
       </c>
       <c r="B76">
         <v>8000000</v>
@@ -21483,7 +21483,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>45473.46236913069</v>
+        <v>106519.05276276311</v>
       </c>
       <c r="B77">
         <v>8000000</v>
@@ -21494,7 +21494,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>64785.16914414684</v>
+        <v>70635.2564177427</v>
       </c>
       <c r="B78">
         <v>8000000</v>
@@ -21505,7 +21505,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>37823.92753678374</v>
+        <v>40949.78955600213</v>
       </c>
       <c r="B79">
         <v>8000000</v>
@@ -21516,7 +21516,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>9597.638125123456</v>
+        <v>24276.762227244675</v>
       </c>
       <c r="B80">
         <v>8000000</v>
@@ -21527,7 +21527,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>42908.42459029867</v>
+        <v>46011.804770095274</v>
       </c>
       <c r="B81">
         <v>8000000</v>
@@ -21538,7 +21538,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>133410.34307715297</v>
+        <v>44222.07951575355</v>
       </c>
       <c r="B82">
         <v>8000000</v>
@@ -21549,7 +21549,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>29199.386568207003</v>
+        <v>36679.00584859622</v>
       </c>
       <c r="B83">
         <v>8000000</v>
@@ -21560,7 +21560,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>71963.81730538676</v>
+        <v>22287.482021017</v>
       </c>
       <c r="B84">
         <v>8000000</v>
@@ -21571,7 +21571,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>39009.00075474172</v>
+        <v>105065.70043053711</v>
       </c>
       <c r="B85">
         <v>8000000</v>
@@ -21582,7 +21582,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>37994.179439760745</v>
+        <v>21096.318873381242</v>
       </c>
       <c r="B86">
         <v>8000000</v>
@@ -21593,7 +21593,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>86193.87941982085</v>
+        <v>36324.14904833166</v>
       </c>
       <c r="B87">
         <v>8000000</v>
@@ -21604,7 +21604,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>58283.255312365945</v>
+        <v>70580.68141944986</v>
       </c>
       <c r="B88">
         <v>8000000</v>
@@ -21615,7 +21615,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>82422.71768480819</v>
+        <v>72726.58910932625</v>
       </c>
       <c r="B89">
         <v>8000000</v>
@@ -21626,7 +21626,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>137332.63606202044</v>
+        <v>32278.816826008726</v>
       </c>
       <c r="B90">
         <v>8000000</v>
@@ -21637,7 +21637,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>36020.41117067647</v>
+        <v>63285.914251743816</v>
       </c>
       <c r="B91">
         <v>8000000</v>
@@ -21648,7 +21648,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>67251.47059303988</v>
+        <v>55360.6897738562</v>
       </c>
       <c r="B92">
         <v>8000000</v>
@@ -21659,7 +21659,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>55554.908423301764</v>
+        <v>50234.64541927376</v>
       </c>
       <c r="B93">
         <v>8000000</v>
@@ -21670,7 +21670,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>70620.60520815232</v>
+        <v>43893.484141513705</v>
       </c>
       <c r="B94">
         <v>8000000</v>
@@ -21681,7 +21681,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>74628.83492098143</v>
+        <v>75333.50276930071</v>
       </c>
       <c r="B95">
         <v>8000000</v>
@@ -21692,7 +21692,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>70167.75214867573</v>
+        <v>58727.97301459871</v>
       </c>
       <c r="B96">
         <v>8000000</v>
@@ -21703,7 +21703,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>83804.54647160764</v>
+        <v>50224.90403134329</v>
       </c>
       <c r="B97">
         <v>8000000</v>
@@ -21714,7 +21714,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>42421.617817164806</v>
+        <v>120047.68564287387</v>
       </c>
       <c r="B98">
         <v>8000000</v>
@@ -21725,7 +21725,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>70995.10632462613</v>
+        <v>36563.459706818685</v>
       </c>
       <c r="B99">
         <v>8000000</v>
@@ -21736,7 +21736,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>26907.37129081413</v>
+        <v>81005.74640361173</v>
       </c>
       <c r="B100">
         <v>8000000</v>
@@ -21747,7 +21747,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>154842.03880882263</v>
+        <v>63017.181918626186</v>
       </c>
       <c r="B101">
         <v>8000000</v>
@@ -21782,7 +21782,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>125.54247984125837</v>
+        <v>145.09833616772278</v>
       </c>
       <c r="B2">
         <v>353418</v>
@@ -21793,7 +21793,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>116.82657128486333</v>
+        <v>131.9969446691011</v>
       </c>
       <c r="B3">
         <v>353418</v>
@@ -21804,7 +21804,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>110.12849680124155</v>
+        <v>131.58721447291794</v>
       </c>
       <c r="B4">
         <v>353418</v>
@@ -21815,7 +21815,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>107.36982091498446</v>
+        <v>146.4897539700876</v>
       </c>
       <c r="B5">
         <v>353418</v>
@@ -21826,7 +21826,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>123.92372701765281</v>
+        <v>137.72105519381415</v>
       </c>
       <c r="B6">
         <v>353418</v>
@@ -21837,7 +21837,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>139.0931896148537</v>
+        <v>168.6635906098733</v>
       </c>
       <c r="B7">
         <v>353418</v>
@@ -21848,7 +21848,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>116.4399577286199</v>
+        <v>93.37848322268113</v>
       </c>
       <c r="B8">
         <v>353418</v>
@@ -21859,7 +21859,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>93.3335843467602</v>
+        <v>102.93135697840958</v>
       </c>
       <c r="B9">
         <v>353418</v>
@@ -21870,7 +21870,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>124.62083091201572</v>
+        <v>116.26652922403679</v>
       </c>
       <c r="B10">
         <v>353418</v>
@@ -21881,7 +21881,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>112.6932932056394</v>
+        <v>117.5335486620277</v>
       </c>
       <c r="B11">
         <v>353418</v>
@@ -21892,7 +21892,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>103.14934979290362</v>
+        <v>108.35799293948571</v>
       </c>
       <c r="B12">
         <v>353418</v>
@@ -21903,7 +21903,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>114.00240456334673</v>
+        <v>136.72219807834824</v>
       </c>
       <c r="B13">
         <v>353418</v>
@@ -21914,7 +21914,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>154.6895760446749</v>
+        <v>147.38416528342978</v>
       </c>
       <c r="B14">
         <v>353418</v>
@@ -21925,7 +21925,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>158.35256705376983</v>
+        <v>100.01871430114532</v>
       </c>
       <c r="B15">
         <v>353418</v>
@@ -21936,7 +21936,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>94.93874433409316</v>
+        <v>96.12066260904047</v>
       </c>
       <c r="B16">
         <v>353418</v>
@@ -21947,7 +21947,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>125.49325906376656</v>
+        <v>160.09780958287746</v>
       </c>
       <c r="B17">
         <v>353418</v>
@@ -21958,7 +21958,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>143.5615257237895</v>
+        <v>114.91973310053628</v>
       </c>
       <c r="B18">
         <v>353418</v>
@@ -21969,7 +21969,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>130.26479774479472</v>
+        <v>149.60669487713938</v>
       </c>
       <c r="B19">
         <v>353418</v>
@@ -21980,7 +21980,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>103.87997929694428</v>
+        <v>105.14907933191417</v>
       </c>
       <c r="B20">
         <v>353418</v>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>67.15432348598378</v>
+        <v>115.90908565592513</v>
       </c>
       <c r="B21">
         <v>353418</v>
@@ -22002,7 +22002,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>156.38672672544354</v>
+        <v>116.18380753235905</v>
       </c>
       <c r="B22">
         <v>353418</v>
@@ -22013,7 +22013,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>125.29089924035848</v>
+        <v>89.1251412849911</v>
       </c>
       <c r="B23">
         <v>353418</v>
@@ -22024,7 +22024,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>117.22184808927511</v>
+        <v>127.28143982622343</v>
       </c>
       <c r="B24">
         <v>353418</v>
@@ -22035,7 +22035,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>114.70936276577402</v>
+        <v>118.22502199026873</v>
       </c>
       <c r="B25">
         <v>353418</v>
@@ -22046,7 +22046,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>106.06290797667666</v>
+        <v>117.91284490055212</v>
       </c>
       <c r="B26">
         <v>353418</v>
@@ -22057,7 +22057,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>89.38819563544365</v>
+        <v>145.3870469666183</v>
       </c>
       <c r="B27">
         <v>353418</v>
@@ -22068,7 +22068,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>127.41115715448363</v>
+        <v>124.58701409007183</v>
       </c>
       <c r="B28">
         <v>353418</v>
@@ -22079,7 +22079,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>96.1701370816328</v>
+        <v>77.20086398320882</v>
       </c>
       <c r="B29">
         <v>353418</v>
@@ -22090,7 +22090,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>118.35402040279676</v>
+        <v>97.50220039341906</v>
       </c>
       <c r="B30">
         <v>353418</v>
@@ -22101,7 +22101,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>124.5729555296131</v>
+        <v>136.72389325192825</v>
       </c>
       <c r="B31">
         <v>353418</v>
@@ -22112,7 +22112,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>149.24435342473384</v>
+        <v>109.65021108847208</v>
       </c>
       <c r="B32">
         <v>353418</v>
@@ -22123,7 +22123,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>105.17764012969195</v>
+        <v>69.5704968946709</v>
       </c>
       <c r="B33">
         <v>353418</v>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>114.40418623760547</v>
+        <v>96.9622924325289</v>
       </c>
       <c r="B34">
         <v>353418</v>
@@ -22145,7 +22145,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>88.47406274241916</v>
+        <v>104.7954393101466</v>
       </c>
       <c r="B35">
         <v>353418</v>
@@ -22156,7 +22156,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>118.69697308385578</v>
+        <v>123.33566521572853</v>
       </c>
       <c r="B36">
         <v>353418</v>
@@ -22167,7 +22167,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>136.78430224202634</v>
+        <v>120.78294329332194</v>
       </c>
       <c r="B37">
         <v>353418</v>
@@ -22178,7 +22178,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>64.3990321946423</v>
+        <v>95.72512620039336</v>
       </c>
       <c r="B38">
         <v>353418</v>
@@ -22189,7 +22189,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>108.8453669256585</v>
+        <v>115.33496799767488</v>
       </c>
       <c r="B39">
         <v>353418</v>
@@ -22200,7 +22200,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>101.29923302093985</v>
+        <v>129.6506989314384</v>
       </c>
       <c r="B40">
         <v>353418</v>
@@ -22211,7 +22211,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>107.22834121364077</v>
+        <v>98.70854865137444</v>
       </c>
       <c r="B41">
         <v>353418</v>
@@ -22222,7 +22222,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>107.59388153045359</v>
+        <v>130.67833651888213</v>
       </c>
       <c r="B42">
         <v>353418</v>
@@ -22233,7 +22233,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>142.3819079901947</v>
+        <v>127.05052737433587</v>
       </c>
       <c r="B43">
         <v>353418</v>
@@ -22244,7 +22244,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>103.50249988493702</v>
+        <v>104.62911797342637</v>
       </c>
       <c r="B44">
         <v>353418</v>
@@ -22255,7 +22255,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>129.03096977448737</v>
+        <v>111.19667878953632</v>
       </c>
       <c r="B45">
         <v>353418</v>
@@ -22266,7 +22266,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>108.72973910394698</v>
+        <v>97.12246684600801</v>
       </c>
       <c r="B46">
         <v>353418</v>
@@ -22277,7 +22277,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>156.847046808399</v>
+        <v>94.61644224065228</v>
       </c>
       <c r="B47">
         <v>353418</v>
@@ -22288,7 +22288,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>151.22101453080185</v>
+        <v>126.33628769057268</v>
       </c>
       <c r="B48">
         <v>353418</v>
@@ -22299,7 +22299,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>111.58721279275557</v>
+        <v>143.17955553404195</v>
       </c>
       <c r="B49">
         <v>353418</v>
@@ -22310,7 +22310,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>136.39535161674172</v>
+        <v>89.45793642322927</v>
       </c>
       <c r="B50">
         <v>353418</v>
@@ -22321,7 +22321,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>89.93292665163439</v>
+        <v>162.7574278359459</v>
       </c>
       <c r="B51">
         <v>353418</v>
@@ -22332,7 +22332,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>144.07324052976946</v>
+        <v>132.55162777228878</v>
       </c>
       <c r="B52">
         <v>353418</v>
@@ -22343,7 +22343,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>108.37058646337937</v>
+        <v>122.07839439248283</v>
       </c>
       <c r="B53">
         <v>353418</v>
@@ -22354,7 +22354,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>130.81659345775716</v>
+        <v>115.25027806733807</v>
       </c>
       <c r="B54">
         <v>353418</v>
@@ -22365,7 +22365,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>114.01010314009686</v>
+        <v>116.06490794485883</v>
       </c>
       <c r="B55">
         <v>353418</v>
@@ -22376,7 +22376,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>141.22952603954235</v>
+        <v>108.37590588208566</v>
       </c>
       <c r="B56">
         <v>353418</v>
@@ -22387,7 +22387,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>118.24739811112994</v>
+        <v>115.28022332696955</v>
       </c>
       <c r="B57">
         <v>353418</v>
@@ -22398,7 +22398,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>116.16613848838558</v>
+        <v>99.69640851825517</v>
       </c>
       <c r="B58">
         <v>353418</v>
@@ -22409,7 +22409,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>147.7317772073676</v>
+        <v>174.27643524822275</v>
       </c>
       <c r="B59">
         <v>353418</v>
@@ -22420,7 +22420,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>124.16395219704239</v>
+        <v>106.0489111996066</v>
       </c>
       <c r="B60">
         <v>353418</v>
@@ -22431,7 +22431,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>122.98936176291903</v>
+        <v>158.25880390659577</v>
       </c>
       <c r="B61">
         <v>353418</v>
@@ -22442,7 +22442,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>37.51553651410942</v>
+        <v>97.08360229169492</v>
       </c>
       <c r="B62">
         <v>353418</v>
@@ -22453,7 +22453,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>107.32208741942162</v>
+        <v>116.29414004219237</v>
       </c>
       <c r="B63">
         <v>353418</v>
@@ -22464,7 +22464,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>156.4616354908529</v>
+        <v>154.6309110460665</v>
       </c>
       <c r="B64">
         <v>353418</v>
@@ -22475,7 +22475,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>109.85651200445315</v>
+        <v>134.3681256162743</v>
       </c>
       <c r="B65">
         <v>353418</v>
@@ -22486,7 +22486,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>90.0953109345077</v>
+        <v>89.77286348569098</v>
       </c>
       <c r="B66">
         <v>353418</v>
@@ -22497,7 +22497,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>129.93397036263502</v>
+        <v>94.29671485787509</v>
       </c>
       <c r="B67">
         <v>353418</v>
@@ -22508,7 +22508,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>133.44512992899425</v>
+        <v>103.76593016330546</v>
       </c>
       <c r="B68">
         <v>353418</v>
@@ -22519,7 +22519,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>129.3530262547109</v>
+        <v>124.8779899972434</v>
       </c>
       <c r="B69">
         <v>353418</v>
@@ -22530,7 +22530,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>133.3006451065282</v>
+        <v>114.42933654812512</v>
       </c>
       <c r="B70">
         <v>353418</v>
@@ -22541,7 +22541,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>50.609045613098665</v>
+        <v>140.8934001476164</v>
       </c>
       <c r="B71">
         <v>353418</v>
@@ -22552,7 +22552,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>98.99923785744033</v>
+        <v>119.2538841217773</v>
       </c>
       <c r="B72">
         <v>353418</v>
@@ -22563,7 +22563,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>106.97099081098965</v>
+        <v>156.47889172090865</v>
       </c>
       <c r="B73">
         <v>353418</v>
@@ -22574,7 +22574,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>116.08212803760772</v>
+        <v>105.78521248113097</v>
       </c>
       <c r="B74">
         <v>353418</v>
@@ -22585,7 +22585,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>131.5734433931878</v>
+        <v>118.63307855803764</v>
       </c>
       <c r="B75">
         <v>353418</v>
@@ -22596,7 +22596,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>65.38881650926629</v>
+        <v>147.50141321742618</v>
       </c>
       <c r="B76">
         <v>353418</v>
@@ -22607,7 +22607,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>169.76975961542092</v>
+        <v>93.95983721410997</v>
       </c>
       <c r="B77">
         <v>353418</v>
@@ -22618,7 +22618,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>89.1572924116399</v>
+        <v>92.36492352050537</v>
       </c>
       <c r="B78">
         <v>353418</v>
@@ -22629,7 +22629,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>95.24072142029273</v>
+        <v>88.9622871465446</v>
       </c>
       <c r="B79">
         <v>353418</v>
@@ -22640,7 +22640,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>124.07694256173218</v>
+        <v>167.33976535470077</v>
       </c>
       <c r="B80">
         <v>353418</v>
@@ -22651,7 +22651,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>124.30084098214782</v>
+        <v>90.29134407809705</v>
       </c>
       <c r="B81">
         <v>353418</v>
@@ -22662,7 +22662,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>93.10121933984325</v>
+        <v>118.44006415192563</v>
       </c>
       <c r="B82">
         <v>353418</v>
@@ -22673,7 +22673,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>112.47180533426103</v>
+        <v>121.84539826046726</v>
       </c>
       <c r="B83">
         <v>353418</v>
@@ -22684,7 +22684,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>118.08371664393168</v>
+        <v>102.96935522303326</v>
       </c>
       <c r="B84">
         <v>353418</v>
@@ -22695,7 +22695,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>89.9936092345253</v>
+        <v>141.5852104576059</v>
       </c>
       <c r="B85">
         <v>353418</v>
@@ -22706,7 +22706,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>104.11702772219684</v>
+        <v>119.37521931696762</v>
       </c>
       <c r="B86">
         <v>353418</v>
@@ -22717,7 +22717,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>80.77232201371973</v>
+        <v>97.42148487281251</v>
       </c>
       <c r="B87">
         <v>353418</v>
@@ -22728,7 +22728,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>91.90120695789695</v>
+        <v>156.8713883137603</v>
       </c>
       <c r="B88">
         <v>353418</v>
@@ -22739,7 +22739,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>123.68236561081363</v>
+        <v>95.45734515425374</v>
       </c>
       <c r="B89">
         <v>353418</v>
@@ -22750,7 +22750,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>119.19325827917969</v>
+        <v>93.04604039542085</v>
       </c>
       <c r="B90">
         <v>353418</v>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>141.65931003620204</v>
+        <v>132.6228929367782</v>
       </c>
       <c r="B91">
         <v>353418</v>
@@ -22772,7 +22772,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>120.89045067526166</v>
+        <v>121.31077573660954</v>
       </c>
       <c r="B92">
         <v>353418</v>
@@ -22783,7 +22783,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>110.49338761402933</v>
+        <v>136.32345949336832</v>
       </c>
       <c r="B93">
         <v>353418</v>
@@ -22794,7 +22794,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>150.8188120842031</v>
+        <v>90.23152357051079</v>
       </c>
       <c r="B94">
         <v>353418</v>
@@ -22805,7 +22805,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>147.67304496421778</v>
+        <v>113.81201160274105</v>
       </c>
       <c r="B95">
         <v>353418</v>
@@ -22816,7 +22816,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>155.51864474098852</v>
+        <v>88.21459119158493</v>
       </c>
       <c r="B96">
         <v>353418</v>
@@ -22827,7 +22827,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>100.38897201015354</v>
+        <v>130.94314309841346</v>
       </c>
       <c r="B97">
         <v>353418</v>
@@ -22838,7 +22838,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>140.81974982610427</v>
+        <v>92.51659487192462</v>
       </c>
       <c r="B98">
         <v>353418</v>
@@ -22849,7 +22849,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>120.49962546684644</v>
+        <v>90.46553543114621</v>
       </c>
       <c r="B99">
         <v>353418</v>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>157.11108402718233</v>
+        <v>134.6028142616353</v>
       </c>
       <c r="B100">
         <v>353418</v>
@@ -22871,7 +22871,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>141.9693158456977</v>
+        <v>90.78969934479935</v>
       </c>
       <c r="B101">
         <v>353418</v>
